--- a/Projekt2_Liczby_Pierwsze/Projekt2_Liczby_Pierwsze/Projekt2-dane.xlsx
+++ b/Projekt2_Liczby_Pierwsze/Projekt2_Liczby_Pierwsze/Projekt2-dane.xlsx
@@ -99,12 +99,6 @@
     <t>Test na zbiorze liczbowym składającym się z ośmiu cyfr podanych w projekcie</t>
   </si>
   <si>
-    <t>PrimeNumbersErastotenes - Time</t>
-  </si>
-  <si>
-    <t>PrimeNumbersErastotenes - Instr</t>
-  </si>
-  <si>
     <t>PrimeNumbers - Ticks</t>
   </si>
   <si>
@@ -120,7 +114,13 @@
     <t>PrimeNumbersDivisibilityForm235 - Ticks</t>
   </si>
   <si>
-    <t>PrimeNumbersErastotenes - Ticks</t>
+    <t>PrimeNumbersEratotenes - Time</t>
+  </si>
+  <si>
+    <t>PrimeNumbersEratotenes - Ticks</t>
+  </si>
+  <si>
+    <t>PrimeNumbersEratotenes - Instr</t>
   </si>
 </sst>
 </file>
@@ -778,7 +778,7 @@
   <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -805,7 +805,7 @@
       <c r="D1" s="45"/>
       <c r="E1" s="45"/>
       <c r="F1" s="45"/>
-      <c r="G1" s="39"/>
+      <c r="G1" s="45"/>
       <c r="H1" s="39"/>
       <c r="I1" s="39"/>
       <c r="J1" s="39"/>
@@ -831,7 +831,7 @@
         <v>21</v>
       </c>
       <c r="G2" s="41" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1025,22 +1025,22 @@
         <v>0</v>
       </c>
       <c r="B11" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="39" t="s">
+      <c r="E11" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="39" t="s">
+      <c r="F11" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="39" t="s">
+      <c r="G11" s="41" t="s">
         <v>30</v>
-      </c>
-      <c r="G11" s="41" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1060,7 +1060,7 @@
         <v>67</v>
       </c>
       <c r="G12" s="4">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1080,7 +1080,7 @@
         <v>124</v>
       </c>
       <c r="G13" s="4">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H13" s="39"/>
       <c r="I13" s="39"/>
@@ -1104,7 +1104,7 @@
         <v>297</v>
       </c>
       <c r="G14" s="4">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1124,7 +1124,7 @@
         <v>750</v>
       </c>
       <c r="G15" s="4">
-        <v>448</v>
+        <v>481</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1144,7 +1144,7 @@
         <v>1908</v>
       </c>
       <c r="G16" s="4">
-        <v>1389</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1164,7 +1164,7 @@
         <v>5565</v>
       </c>
       <c r="G17" s="4">
-        <v>3804</v>
+        <v>3835</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1184,7 +1184,7 @@
         <v>15397</v>
       </c>
       <c r="G18" s="4">
-        <v>9786</v>
+        <v>8957</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1204,7 +1204,7 @@
         <v>42763</v>
       </c>
       <c r="G19" s="4">
-        <v>27114</v>
+        <v>25273</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1227,7 +1227,7 @@
         <v>22</v>
       </c>
       <c r="G20" s="41" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1439,8 +1439,38 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
+  <conditionalFormatting sqref="C10:G10">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19:G19">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28:G28">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Projekt2_Liczby_Pierwsze/Projekt2_Liczby_Pierwsze/Projekt2-dane.xlsx
+++ b/Projekt2_Liczby_Pierwsze/Projekt2_Liczby_Pierwsze/Projekt2-dane.xlsx
@@ -778,7 +778,7 @@
   <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Projekt2_Liczby_Pierwsze/Projekt2_Liczby_Pierwsze/Projekt2-dane.xlsx
+++ b/Projekt2_Liczby_Pierwsze/Projekt2_Liczby_Pierwsze/Projekt2-dane.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
   <si>
     <t>Number</t>
   </si>
@@ -121,6 +121,24 @@
   </si>
   <si>
     <t>PrimeNumbersEratotenes - Instr</t>
+  </si>
+  <si>
+    <t>IsPrimeDivisibilityForm</t>
+  </si>
+  <si>
+    <t>IsPrimeDivisibility235</t>
+  </si>
+  <si>
+    <t>IsPrimeDivisibilityForm235</t>
+  </si>
+  <si>
+    <t>IsPrimeEratotenes</t>
+  </si>
+  <si>
+    <t>Test na przedziałach 100-liczbowych</t>
+  </si>
+  <si>
+    <t>IsPrimeEratostenes</t>
   </si>
 </sst>
 </file>
@@ -165,14 +183,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="5" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="16"/>
       <color theme="1"/>
@@ -181,8 +191,16 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -213,6 +231,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="13">
     <border>
@@ -395,12 +419,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -462,18 +482,14 @@
     <xf numFmtId="2" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -493,6 +509,20 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -775,10 +805,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="E11" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -790,61 +820,83 @@
     <col min="5" max="5" width="33.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="38.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" customWidth="1"/>
-    <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="16" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="1"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="39" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="41" t="s">
+      <c r="G2" s="37" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
+      <c r="I2" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="48" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
         <v>100913</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="9">
         <v>2</v>
       </c>
-      <c r="C3" s="4">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4">
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
         <v>0</v>
       </c>
       <c r="E3">
@@ -856,18 +908,33 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
         <v>1009139</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="9">
         <v>15</v>
       </c>
-      <c r="C4" s="4">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4">
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
         <v>0</v>
       </c>
       <c r="E4">
@@ -879,18 +946,33 @@
       <c r="G4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+      <c r="I4" s="1">
+        <v>10</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
         <v>10091401</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="9">
         <v>112</v>
       </c>
-      <c r="C5" s="4">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4">
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
         <v>0</v>
       </c>
       <c r="E5">
@@ -902,18 +984,33 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
+      <c r="I5" s="1">
+        <v>100</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
         <v>100914061</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="9">
         <v>848</v>
       </c>
-      <c r="C6" s="4">
-        <v>0</v>
-      </c>
-      <c r="D6" s="4">
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
         <v>0</v>
       </c>
       <c r="E6">
@@ -925,18 +1022,33 @@
       <c r="G6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+      <c r="I6" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
         <v>1009140611</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="9">
         <v>6846</v>
       </c>
-      <c r="C7" s="4">
-        <v>0</v>
-      </c>
-      <c r="D7" s="4">
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
         <v>0</v>
       </c>
       <c r="E7">
@@ -948,18 +1060,33 @@
       <c r="G7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+      <c r="I7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
         <v>10091406133</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="9">
         <v>115794</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="2">
         <v>2</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="2">
         <v>2</v>
       </c>
       <c r="E8">
@@ -971,19 +1098,34 @@
       <c r="G8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="I8" s="1">
+        <v>100000</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>100914061337</v>
       </c>
-      <c r="B9" s="38">
+      <c r="B9" s="52">
         <f>Obliczenia!D6</f>
         <v>1162681.1220113561</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="2">
         <v>6</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="2">
         <v>5</v>
       </c>
       <c r="E9">
@@ -995,19 +1137,34 @@
       <c r="G9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="I9" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>1009140613399</v>
       </c>
-      <c r="B10" s="38">
+      <c r="B10" s="52">
         <f>Obliczenia!D7</f>
         <v>11635323.345258987</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="2">
         <v>19</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="2">
         <v>15</v>
       </c>
       <c r="E10">
@@ -1019,430 +1176,950 @@
       <c r="G10">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="39" t="s">
+      <c r="I10" s="1">
+        <v>10000000</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="39" t="s">
+      <c r="C11" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="39" t="s">
+      <c r="D11" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="39" t="s">
+      <c r="E11" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="39" t="s">
+      <c r="F11" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="41" t="s">
+      <c r="G11" s="37" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="I11" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="J11" s="1">
+        <v>4</v>
+      </c>
+      <c r="K11" s="1">
+        <v>4</v>
+      </c>
+      <c r="L11" s="1">
+        <v>3</v>
+      </c>
+      <c r="M11" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>100913</v>
       </c>
-      <c r="C12" s="4">
+      <c r="B12">
+        <v>10511</v>
+      </c>
+      <c r="C12" s="2">
         <v>66</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="2">
         <v>60</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="2">
         <v>58</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="2">
         <v>67</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="2">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+      <c r="I12" s="1">
+        <v>1000000000</v>
+      </c>
+      <c r="J12" s="1">
+        <v>15</v>
+      </c>
+      <c r="K12" s="1">
+        <v>16</v>
+      </c>
+      <c r="L12" s="1">
+        <v>15</v>
+      </c>
+      <c r="M12" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>1009139</v>
       </c>
-      <c r="C13" s="4">
+      <c r="B13">
+        <v>62416</v>
+      </c>
+      <c r="C13" s="2">
         <v>143</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="2">
         <v>128</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="2">
         <v>126</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="2">
         <v>124</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="2">
         <v>85</v>
       </c>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+      <c r="H13" s="36"/>
+      <c r="I13" s="1">
+        <v>10000000000</v>
+      </c>
+      <c r="J13" s="1">
+        <v>41</v>
+      </c>
+      <c r="K13" s="1">
+        <v>48</v>
+      </c>
+      <c r="L13" s="1">
+        <v>41</v>
+      </c>
+      <c r="M13" s="1">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>10091401</v>
       </c>
-      <c r="C14" s="4">
+      <c r="B14">
+        <v>441605</v>
+      </c>
+      <c r="C14" s="2">
         <v>360</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="2">
         <v>301</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="2">
         <v>291</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="2">
         <v>297</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="2">
         <v>207</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+      <c r="I14" s="49">
+        <v>100000000000</v>
+      </c>
+      <c r="J14" s="49">
+        <v>161</v>
+      </c>
+      <c r="K14" s="1">
+        <v>188</v>
+      </c>
+      <c r="L14" s="1">
+        <v>181</v>
+      </c>
+      <c r="M14" s="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
         <v>100914061</v>
       </c>
-      <c r="C15" s="4">
+      <c r="B15">
+        <v>3308088</v>
+      </c>
+      <c r="C15" s="2">
         <v>846</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="2">
         <v>768</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="2">
         <v>914</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="2">
         <v>750</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="2">
         <v>481</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+      <c r="I15" s="1">
+        <v>1000000000000</v>
+      </c>
+      <c r="J15" s="1">
+        <v>304</v>
+      </c>
+      <c r="K15" s="1">
+        <v>378</v>
+      </c>
+      <c r="L15" s="1">
+        <v>308</v>
+      </c>
+      <c r="M15" s="1">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>1009140611</v>
       </c>
-      <c r="C16" s="4">
+      <c r="B16">
+        <v>26728249</v>
+      </c>
+      <c r="C16" s="2">
         <v>2340</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="2">
         <v>2124</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="2">
         <v>2223</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="2">
         <v>1908</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="2">
         <v>1265</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+      <c r="I16" s="1">
+        <v>10000000000000</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1001</v>
+      </c>
+      <c r="K16" s="1">
+        <v>1068</v>
+      </c>
+      <c r="L16" s="1">
+        <v>893</v>
+      </c>
+      <c r="M16" s="1">
+        <v>4792</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
         <v>10091406133</v>
       </c>
-      <c r="C17" s="4">
+      <c r="B17">
+        <v>416698875</v>
+      </c>
+      <c r="C17" s="2">
         <v>8535</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="2">
         <v>6374</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="2">
         <v>6184</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="2">
         <v>5565</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="2">
         <v>3835</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+      <c r="I17" s="1">
+        <v>100000000000000</v>
+      </c>
+      <c r="J17" s="1">
+        <v>3761</v>
+      </c>
+      <c r="K17" s="1">
+        <v>4454</v>
+      </c>
+      <c r="L17" s="1">
+        <v>3974</v>
+      </c>
+      <c r="M17" s="1">
+        <v>10767</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
         <v>100914061337</v>
       </c>
-      <c r="C18" s="4">
+      <c r="B18" s="51"/>
+      <c r="C18" s="2">
         <v>23418</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="2">
         <v>18370</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="2">
         <v>19874</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="2">
         <v>15397</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="2">
         <v>8957</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
+      <c r="I18" s="1">
+        <v>1000000000000000</v>
+      </c>
+      <c r="J18" s="1">
+        <v>5542</v>
+      </c>
+      <c r="K18" s="1">
+        <v>6496</v>
+      </c>
+      <c r="L18" s="1">
+        <v>5535</v>
+      </c>
+      <c r="M18" s="1">
+        <v>29646</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
         <v>1009140613399</v>
       </c>
-      <c r="C19" s="4">
+      <c r="B19" s="51"/>
+      <c r="C19" s="2">
         <v>64018</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="2">
         <v>48433</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="2">
         <v>54216</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="2">
         <v>42763</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="2">
         <v>25273</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="39" t="s">
+      <c r="I19" s="1">
+        <v>1E+16</v>
+      </c>
+      <c r="J19" s="1">
+        <v>32868</v>
+      </c>
+      <c r="K19" s="1">
+        <v>38760</v>
+      </c>
+      <c r="L19" s="1">
+        <v>32846</v>
+      </c>
+      <c r="M19" s="1">
+        <v>105676</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="39" t="s">
+      <c r="C20" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="39" t="s">
+      <c r="D20" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="39" t="s">
+      <c r="E20" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="F20" s="39" t="s">
+      <c r="F20" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="G20" s="41" t="s">
+      <c r="G20" s="37" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
+      <c r="I20" s="1">
+        <v>1E+17</v>
+      </c>
+      <c r="J20" s="1">
+        <v>158400</v>
+      </c>
+      <c r="K20" s="1">
+        <v>187605</v>
+      </c>
+      <c r="L20" s="1">
+        <v>158809</v>
+      </c>
+      <c r="M20" s="1">
+        <v>370073</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>100913</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="2">
         <v>25228</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="2">
         <v>159</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="2">
         <v>108</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="2">
         <v>167</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="2">
         <v>115</v>
       </c>
-      <c r="G21" s="42">
+      <c r="G21" s="38">
         <v>66</v>
       </c>
-      <c r="H21" s="44"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
+      <c r="H21" s="40"/>
+      <c r="I21" s="1">
+        <v>1E+18</v>
+      </c>
+      <c r="J21" s="1">
+        <v>289127</v>
+      </c>
+      <c r="K21" s="1">
+        <v>343191</v>
+      </c>
+      <c r="L21" s="1">
+        <v>289379</v>
+      </c>
+      <c r="M21" s="1">
+        <v>1041310</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
         <v>1009139</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="2">
         <v>252284</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="2">
         <v>502</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="2">
         <v>337</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="2">
         <v>511</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="2">
         <v>345</v>
       </c>
-      <c r="G22" s="43">
+      <c r="G22" s="39">
         <v>502</v>
       </c>
-      <c r="H22" s="44"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
+      <c r="H22" s="40"/>
+      <c r="I22" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="J22" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="K22" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="L22" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="M22" s="36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
         <v>10091401</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="2">
         <v>2522850</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="2">
         <v>1588</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="2">
         <v>1061</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="2">
         <v>1598</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="2">
         <v>1070</v>
       </c>
-      <c r="G23" s="42">
+      <c r="G23" s="38">
         <v>1588</v>
       </c>
-      <c r="H23" s="44"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
+      <c r="H23" s="40"/>
+      <c r="I23" s="1">
+        <v>1</v>
+      </c>
+      <c r="J23" s="1">
+        <v>205</v>
+      </c>
+      <c r="K23" s="1">
+        <v>382</v>
+      </c>
+      <c r="L23" s="1">
+        <v>361</v>
+      </c>
+      <c r="M23" s="1">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
         <v>100914061</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="2">
         <v>25228515</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="2">
         <v>5023</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="2">
         <v>3351</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="2">
         <v>5034</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="2">
         <v>3361</v>
       </c>
-      <c r="G24" s="42">
+      <c r="G24" s="38">
         <v>2681</v>
       </c>
-      <c r="H24" s="44"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
+      <c r="H24" s="40"/>
+      <c r="I24" s="1">
+        <v>10</v>
+      </c>
+      <c r="J24" s="1">
+        <v>222</v>
+      </c>
+      <c r="K24" s="1">
+        <v>411</v>
+      </c>
+      <c r="L24" s="1">
+        <v>401</v>
+      </c>
+      <c r="M24" s="1">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
         <v>1009140611</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="2">
         <v>252285152</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="2">
         <v>15883</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="2">
         <v>10591</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="2">
         <v>15895</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="2">
         <v>10602</v>
       </c>
-      <c r="G25" s="42">
+      <c r="G25" s="38">
         <v>15883</v>
       </c>
-      <c r="H25" s="44"/>
-      <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
+      <c r="H25" s="40"/>
+      <c r="I25" s="1">
+        <v>100</v>
+      </c>
+      <c r="J25" s="1">
+        <v>262</v>
+      </c>
+      <c r="K25" s="1">
+        <v>509</v>
+      </c>
+      <c r="L25" s="1">
+        <v>477</v>
+      </c>
+      <c r="M25" s="1">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
         <v>10091406133</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="2">
         <v>2522851533</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="2">
         <v>50228</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="2">
         <v>33487</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="2">
         <v>50241</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="2">
         <v>33499</v>
       </c>
-      <c r="G26" s="42">
+      <c r="G26" s="38">
         <v>33486</v>
       </c>
-      <c r="H26" s="44"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
+      <c r="H26" s="40"/>
+      <c r="I26" s="50">
+        <v>1000</v>
+      </c>
+      <c r="J26" s="1">
+        <v>384</v>
+      </c>
+      <c r="K26" s="1">
+        <v>734</v>
+      </c>
+      <c r="L26" s="1">
+        <v>639</v>
+      </c>
+      <c r="M26" s="1">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <v>100914061337</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="51"/>
+      <c r="C27" s="2">
+        <v>158835</v>
+      </c>
+      <c r="D27" s="2">
+        <v>105892</v>
+      </c>
+      <c r="E27" s="2">
+        <v>158849</v>
+      </c>
+      <c r="F27" s="2">
+        <v>105905</v>
+      </c>
+      <c r="G27" s="38">
+        <v>66012</v>
+      </c>
+      <c r="H27" s="40"/>
+      <c r="I27" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J27" s="1">
+        <v>675</v>
+      </c>
+      <c r="K27" s="1">
+        <v>1227</v>
+      </c>
+      <c r="L27" s="1">
+        <v>970</v>
+      </c>
+      <c r="M27" s="1">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>1009140613399</v>
+      </c>
+      <c r="B28" s="51"/>
+      <c r="C28" s="2">
+        <v>502280</v>
+      </c>
+      <c r="D28" s="2">
+        <v>334855</v>
+      </c>
+      <c r="E28" s="2">
+        <v>502295</v>
+      </c>
+      <c r="F28" s="2">
+        <v>334869</v>
+      </c>
+      <c r="G28" s="38">
+        <v>334854</v>
+      </c>
+      <c r="H28" s="40"/>
+      <c r="I28" s="1">
+        <v>100000</v>
+      </c>
+      <c r="J28" s="1">
+        <v>1136</v>
+      </c>
+      <c r="K28" s="1">
+        <v>1962</v>
+      </c>
+      <c r="L28" s="1">
+        <v>1471</v>
+      </c>
+      <c r="M28" s="1">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="J29" s="1">
+        <v>2657</v>
+      </c>
+      <c r="K29" s="1">
+        <v>4286</v>
+      </c>
+      <c r="L29" s="1">
+        <v>3032</v>
+      </c>
+      <c r="M29" s="1">
+        <v>3883</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B30" s="2">
         <v>25228515334</v>
       </c>
-      <c r="C27" s="4">
-        <v>158835</v>
-      </c>
-      <c r="D27" s="4">
-        <v>105892</v>
-      </c>
-      <c r="E27" s="4">
-        <v>158849</v>
-      </c>
-      <c r="F27" s="4">
-        <v>105905</v>
-      </c>
-      <c r="G27" s="42">
-        <v>66012</v>
-      </c>
-      <c r="H27" s="44"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
-        <v>1009140613399</v>
-      </c>
-      <c r="B28" s="40">
+      <c r="I30" s="1">
+        <v>10000000</v>
+      </c>
+      <c r="J30" s="1">
+        <v>3975</v>
+      </c>
+      <c r="K30" s="1">
+        <v>6302</v>
+      </c>
+      <c r="L30" s="1">
+        <v>4390</v>
+      </c>
+      <c r="M30" s="1">
+        <v>5859</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B31" s="53">
         <v>252285153349</v>
       </c>
-      <c r="C28" s="4">
-        <v>502280</v>
-      </c>
-      <c r="D28" s="4">
-        <v>334855</v>
-      </c>
-      <c r="E28" s="4">
-        <v>502295</v>
-      </c>
-      <c r="F28" s="4">
-        <v>334869</v>
-      </c>
-      <c r="G28" s="42">
-        <v>334854</v>
-      </c>
-      <c r="H28" s="44"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="44"/>
-      <c r="B29" s="44"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-    </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
+      <c r="I31" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="J31" s="1">
+        <v>22089</v>
+      </c>
+      <c r="K31" s="1">
+        <v>33511</v>
+      </c>
+      <c r="L31" s="1">
+        <v>22544</v>
+      </c>
+      <c r="M31" s="1">
+        <v>33028</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I32" s="1">
+        <v>1000000000</v>
+      </c>
+      <c r="J32" s="1">
+        <v>87914</v>
+      </c>
+      <c r="K32" s="1">
+        <v>132281</v>
+      </c>
+      <c r="L32" s="1">
+        <v>88409</v>
+      </c>
+      <c r="M32" s="1">
+        <v>131758</v>
+      </c>
+    </row>
+    <row r="33" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="I33" s="1">
+        <v>10000000000</v>
+      </c>
+      <c r="J33" s="1">
+        <v>209558</v>
+      </c>
+      <c r="K33" s="1">
+        <v>314797</v>
+      </c>
+      <c r="L33" s="1">
+        <v>210093</v>
+      </c>
+      <c r="M33" s="1">
+        <v>314234</v>
+      </c>
+    </row>
+    <row r="34" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="I34" s="1">
+        <v>100000000000</v>
+      </c>
+      <c r="J34" s="1">
+        <v>758025</v>
+      </c>
+      <c r="K34" s="1">
+        <v>1137536</v>
+      </c>
+      <c r="L34" s="1">
+        <v>758600</v>
+      </c>
+      <c r="M34" s="1">
+        <v>758018</v>
+      </c>
+    </row>
+    <row r="35" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="I35" s="1">
+        <v>1000000000000</v>
+      </c>
+      <c r="J35" s="1">
+        <v>1405252</v>
+      </c>
+      <c r="K35" s="1">
+        <v>2108418</v>
+      </c>
+      <c r="L35" s="1">
+        <v>1405867</v>
+      </c>
+      <c r="M35" s="1">
+        <v>2107775</v>
+      </c>
+    </row>
+    <row r="36" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="I36" s="1">
+        <v>10000000000000</v>
+      </c>
+      <c r="J36" s="1">
+        <v>3995275</v>
+      </c>
+      <c r="K36" s="1">
+        <v>5993490</v>
+      </c>
+      <c r="L36" s="1">
+        <v>3995930</v>
+      </c>
+      <c r="M36" s="1">
+        <v>876128</v>
+      </c>
+    </row>
+    <row r="37" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="I37" s="1">
+        <v>100000000000000</v>
+      </c>
+      <c r="J37" s="1">
+        <v>16655220</v>
+      </c>
+      <c r="K37" s="1">
+        <v>24983450</v>
+      </c>
+      <c r="L37" s="1">
+        <v>16655915</v>
+      </c>
+      <c r="M37" s="1">
+        <v>24982727</v>
+      </c>
+    </row>
+    <row r="38" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="I38" s="1">
+        <v>1000000000000000</v>
+      </c>
+      <c r="J38" s="1">
+        <v>26307327</v>
+      </c>
+      <c r="K38" s="1">
+        <v>39461651</v>
+      </c>
+      <c r="L38" s="1">
+        <v>26308062</v>
+      </c>
+      <c r="M38" s="1">
+        <v>39460888</v>
+      </c>
+    </row>
+    <row r="39" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="I39" s="1">
+        <v>1E+16</v>
+      </c>
+      <c r="J39" s="1">
+        <v>154378645</v>
+      </c>
+      <c r="K39" s="1">
+        <v>231568669</v>
+      </c>
+      <c r="L39" s="1">
+        <v>154379420</v>
+      </c>
+      <c r="M39" s="1">
+        <v>231567866</v>
+      </c>
+    </row>
+    <row r="40" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="I40" s="1">
+        <v>1E+17</v>
+      </c>
+      <c r="J40" s="1">
+        <v>737869035</v>
+      </c>
+      <c r="K40" s="1">
+        <v>1106804290</v>
+      </c>
+      <c r="L40" s="1">
+        <v>737869850</v>
+      </c>
+      <c r="M40" s="1">
+        <v>1106803447</v>
+      </c>
+    </row>
+    <row r="41" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="I41" s="1">
+        <v>1E+18</v>
+      </c>
+      <c r="J41" s="1">
+        <v>1333906955</v>
+      </c>
+      <c r="K41" s="1">
+        <v>2000861211</v>
+      </c>
+      <c r="L41" s="1">
+        <v>1333907810</v>
+      </c>
+      <c r="M41" s="1">
+        <v>2000860328</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:G1"/>
+    <mergeCell ref="I1:M1"/>
   </mergeCells>
   <conditionalFormatting sqref="C10:G10">
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1452,7 +2129,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19:G19">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1462,7 +2139,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28:G28">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J21:M21">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1493,87 +2180,87 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="13">
+      <c r="C3" s="11">
         <f t="array" ref="C3:D3">LINEST(Wyniki!B3:B8,Wyniki!A3:A8,TRUE)</f>
         <v>1.1530869912876889E-5</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="10">
         <v>-945.79164567040789</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="47"/>
+      <c r="D4" s="43"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C6" s="25">
+      <c r="C6" s="23">
         <v>100914061337</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="24">
         <f>C6*$C$3+$D$3</f>
         <v>1162681.1220113561</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="6">
+      <c r="C7" s="4">
         <v>1009140613399</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="15">
         <f>C7*$C$3+$D$3</f>
         <v>11635323.345258987</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
     </row>
     <row r="14" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C15" s="48" t="s">
+      <c r="C15" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="49"/>
-      <c r="E15" s="14"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="12"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="30">
+      <c r="C16" s="28">
         <f t="array" ref="C16:D20">LINEST(Wyniki!B3:B8,Wyniki!A3:A8,TRUE,TRUE)</f>
         <v>1.1530869912876889E-5</v>
       </c>
-      <c r="D16" s="35">
+      <c r="D16" s="33">
         <v>-945.79164567040789</v>
       </c>
       <c r="E16" t="s">
@@ -1581,10 +2268,10 @@
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C17" s="20">
+      <c r="C17" s="18">
         <v>2.3440462403271953E-7</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="17">
         <v>970.56502472175293</v>
       </c>
     </row>
@@ -1592,10 +2279,10 @@
       <c r="B18" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="32">
+      <c r="C18" s="30">
         <v>0.99834974557113931</v>
       </c>
-      <c r="D18" s="34">
+      <c r="D18" s="32">
         <v>2121.4740376779105</v>
       </c>
       <c r="E18" t="s">
@@ -1603,36 +2290,36 @@
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C19" s="18">
+      <c r="C19" s="16">
         <v>2419.8686653678387</v>
       </c>
-      <c r="D19" s="29">
+      <c r="D19" s="27">
         <v>4</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="27">
+      <c r="C20" s="25">
         <v>10890986972.463169</v>
       </c>
-      <c r="D20" s="28">
+      <c r="D20" s="26">
         <v>18002608.370165668</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C21" s="48" t="s">
+      <c r="C21" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="49"/>
+      <c r="D21" s="45"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="30">
+      <c r="C22" s="28">
         <f t="array" ref="C22:D26">LINEST(Wyniki!B3:B9,Wyniki!A3:A9,TRUE,TRUE)</f>
         <v>1.1530869912876891E-5</v>
       </c>
-      <c r="D22" s="36">
+      <c r="D22" s="34">
         <v>-945.79164567039697</v>
       </c>
       <c r="E22" t="s">
@@ -1640,10 +2327,10 @@
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C23" s="21">
+      <c r="C23" s="19">
         <v>2.0592886264851487E-8</v>
       </c>
-      <c r="D23" s="19">
+      <c r="D23" s="17">
         <v>789.4093908882345</v>
       </c>
     </row>
@@ -1651,10 +2338,10 @@
       <c r="B24" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="33">
+      <c r="C24" s="31">
         <v>0.99998405320632522</v>
       </c>
-      <c r="D24" s="34">
+      <c r="D24" s="32">
         <v>1897.5040642994973</v>
       </c>
       <c r="E24" t="s">
@@ -1662,36 +2349,36 @@
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C25" s="15">
+      <c r="C25" s="13">
         <v>313537.65327225259</v>
       </c>
-      <c r="D25" s="16">
+      <c r="D25" s="14">
         <v>5</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="27">
+      <c r="C26" s="25">
         <v>1128899116232.2239</v>
       </c>
-      <c r="D26" s="28">
+      <c r="D26" s="26">
         <v>18002608.370165553</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="50" t="s">
+      <c r="C27" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="51"/>
+      <c r="D27" s="47"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="31">
+      <c r="C28" s="29">
         <f t="array" ref="C28:D32">LINEST(Wyniki!B3:B10,Wyniki!A3:A10,TRUE,TRUE)</f>
         <v>1.1530869912876889E-5</v>
       </c>
-      <c r="D28" s="37">
+      <c r="D28" s="35">
         <v>-945.79164567054249</v>
       </c>
       <c r="E28" t="s">
@@ -1699,10 +2386,10 @@
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C29" s="22">
+      <c r="C29" s="20">
         <v>1.8554930588733961E-9</v>
       </c>
-      <c r="D29" s="19">
+      <c r="D29" s="17">
         <v>665.34734497929253</v>
       </c>
     </row>
@@ -1710,10 +2397,10 @@
       <c r="B30" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="33">
+      <c r="C30" s="31">
         <v>0.9999998446376771</v>
       </c>
-      <c r="D30" s="34">
+      <c r="D30" s="32">
         <v>1732.1762982908167</v>
       </c>
       <c r="E30" t="s">
@@ -1721,18 +2408,18 @@
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C31" s="15">
+      <c r="C31" s="13">
         <v>38619395.991000496</v>
       </c>
-      <c r="D31" s="29">
+      <c r="D31" s="27">
         <v>6</v>
       </c>
     </row>
     <row r="32" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="27">
+      <c r="C32" s="25">
         <v>115874976919703.25</v>
       </c>
-      <c r="D32" s="28">
+      <c r="D32" s="26">
         <v>18002608.37016286</v>
       </c>
     </row>

--- a/Projekt2_Liczby_Pierwsze/Projekt2_Liczby_Pierwsze/Projekt2-dane.xlsx
+++ b/Projekt2_Liczby_Pierwsze/Projekt2_Liczby_Pierwsze/Projekt2-dane.xlsx
@@ -2,18 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr hidePivotFieldList="1"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programowanie\C#\Algorytmy\Projekt2_Liczby_Pierwsze\Projekt2_Liczby_Pierwsze\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985"/>
   </bookViews>
   <sheets>
-    <sheet name="Wyniki" sheetId="1" r:id="rId1"/>
-    <sheet name="Obliczenia" sheetId="4" r:id="rId2"/>
+    <sheet name="Dane" sheetId="1" r:id="rId1"/>
+    <sheet name="Średnie wyników" sheetId="5" r:id="rId2"/>
+    <sheet name="Funkcja regresji" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="50">
   <si>
     <t>Number</t>
   </si>
@@ -60,22 +61,7 @@
     <t>wynik funkcji LINEST() z danych liczb 1-7</t>
   </si>
   <si>
-    <t>wynik funkcji LINEST() z danych liczb 1-6</t>
-  </si>
-  <si>
-    <t>&lt;-- współczynnik b</t>
-  </si>
-  <si>
-    <t>współczynnik a --&gt;</t>
-  </si>
-  <si>
     <t>wynik funkcji LINEST() z danych liczb 1-8</t>
-  </si>
-  <si>
-    <t>wsp. wyznaczania --&gt;</t>
-  </si>
-  <si>
-    <t>&lt;-- błąd oceny Y</t>
   </si>
   <si>
     <t>PrimeNumbersDivisibilityForm - Time</t>
@@ -123,29 +109,80 @@
     <t>PrimeNumbersEratotenes - Instr</t>
   </si>
   <si>
-    <t>IsPrimeDivisibilityForm</t>
-  </si>
-  <si>
-    <t>IsPrimeDivisibility235</t>
-  </si>
-  <si>
-    <t>IsPrimeDivisibilityForm235</t>
-  </si>
-  <si>
-    <t>IsPrimeEratotenes</t>
-  </si>
-  <si>
     <t>Test na przedziałach 100-liczbowych</t>
   </si>
   <si>
-    <t>IsPrimeEratostenes</t>
+    <t>TIME</t>
+  </si>
+  <si>
+    <t>TICKS</t>
+  </si>
+  <si>
+    <t>LEGENDA:</t>
+  </si>
+  <si>
+    <t>współczynnik a</t>
+  </si>
+  <si>
+    <t>współczynnik b</t>
+  </si>
+  <si>
+    <t>błąd oceny Y</t>
+  </si>
+  <si>
+    <t>wsp. wyznaczania</t>
+  </si>
+  <si>
+    <t>błąd względny Y</t>
+  </si>
+  <si>
+    <t>INSTR</t>
+  </si>
+  <si>
+    <t>IsPrimeDivisibilityForm - Time</t>
+  </si>
+  <si>
+    <t>IsPrimeDivisibility235 - Time</t>
+  </si>
+  <si>
+    <t>IsPrimeDivisibilityForm235 - Time</t>
+  </si>
+  <si>
+    <t>IsPrimeEratotenes - Time</t>
+  </si>
+  <si>
+    <t>ms</t>
+  </si>
+  <si>
+    <t>IsPrimeDivisibilityForm - Instr</t>
+  </si>
+  <si>
+    <t>IsPrimeDivisibility235 - Instr</t>
+  </si>
+  <si>
+    <t>IsPrimeDivisibilityForm235 - Instr</t>
+  </si>
+  <si>
+    <t>IsPrimeEratostenes - Instr</t>
+  </si>
+  <si>
+    <t>instr</t>
+  </si>
+  <si>
+    <t>Średnia</t>
+  </si>
+  <si>
+    <t>PrimeNumbersEratostenes - Ticks</t>
+  </si>
+  <si>
+    <t>PrimeNumbersEratostenes - Time</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="9">
+  <numFmts count="16">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _z_ł_-;\-* #,##0.00\ _z_ł_-;_-* &quot;-&quot;??\ _z_ł_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.0000000\ _z_ł_-;\-* #,##0.0000000\ _z_ł_-;_-* &quot;-&quot;??\ _z_ł_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -155,8 +192,15 @@
     <numFmt numFmtId="169" formatCode="0.0000000000"/>
     <numFmt numFmtId="170" formatCode="0.00000000000000000"/>
     <numFmt numFmtId="171" formatCode="0.0000000000000000000"/>
+    <numFmt numFmtId="172" formatCode="0.00000"/>
+    <numFmt numFmtId="173" formatCode="0.000000"/>
+    <numFmt numFmtId="174" formatCode="0.00000000000000"/>
+    <numFmt numFmtId="175" formatCode="0.000000000000000"/>
+    <numFmt numFmtId="176" formatCode="0.0000000000000000"/>
+    <numFmt numFmtId="177" formatCode="0.0000%"/>
+    <numFmt numFmtId="178" formatCode="0.0000000000%"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,8 +243,32 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -237,8 +305,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -369,32 +443,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -414,12 +462,154 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -456,7 +646,6 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -465,23 +654,12 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -489,27 +667,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -519,15 +676,141 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="6" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="172" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Dziesiętny" xfId="1" builtinId="3"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Procentowy" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -805,107 +1088,110 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M41"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E11" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" customWidth="1"/>
     <col min="3" max="3" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="38.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="31.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="16" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="36" t="s">
+    <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="96" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="96" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="L2" s="48" t="s">
-        <v>34</v>
-      </c>
-      <c r="M2" s="48" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D2" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="64" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>100913</v>
       </c>
       <c r="B3" s="9">
         <v>2</v>
       </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
+      <c r="C3" s="32">
+        <v>0</v>
+      </c>
+      <c r="D3" s="32">
+        <v>0</v>
+      </c>
+      <c r="E3" s="32">
+        <v>0</v>
+      </c>
+      <c r="F3" s="32">
+        <v>0</v>
+      </c>
+      <c r="G3" s="32">
         <v>0</v>
       </c>
       <c r="I3" s="1">
@@ -924,26 +1210,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>1009139</v>
       </c>
       <c r="B4" s="9">
-        <v>15</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
+        <v>22</v>
+      </c>
+      <c r="C4" s="32">
+        <v>0</v>
+      </c>
+      <c r="D4" s="32">
+        <v>0</v>
+      </c>
+      <c r="E4" s="32">
+        <v>0</v>
+      </c>
+      <c r="F4" s="32">
+        <v>0</v>
+      </c>
+      <c r="G4" s="32">
         <v>0</v>
       </c>
       <c r="I4" s="1">
@@ -962,26 +1248,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>10091401</v>
       </c>
       <c r="B5" s="9">
-        <v>112</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
+        <v>201</v>
+      </c>
+      <c r="C5" s="32">
+        <v>0</v>
+      </c>
+      <c r="D5" s="32">
+        <v>0</v>
+      </c>
+      <c r="E5" s="32">
+        <v>0</v>
+      </c>
+      <c r="F5" s="32">
+        <v>0</v>
+      </c>
+      <c r="G5" s="32">
         <v>0</v>
       </c>
       <c r="I5" s="1">
@@ -1000,26 +1286,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>100914061</v>
       </c>
       <c r="B6" s="9">
-        <v>848</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
+        <v>2072</v>
+      </c>
+      <c r="C6" s="32">
+        <v>0</v>
+      </c>
+      <c r="D6" s="32">
+        <v>0</v>
+      </c>
+      <c r="E6" s="32">
+        <v>0</v>
+      </c>
+      <c r="F6" s="32">
+        <v>0</v>
+      </c>
+      <c r="G6" s="32">
         <v>0</v>
       </c>
       <c r="I6" s="1">
@@ -1038,26 +1324,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>1009140611</v>
       </c>
       <c r="B7" s="9">
-        <v>6846</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
+        <v>18781</v>
+      </c>
+      <c r="C7" s="32">
+        <v>1</v>
+      </c>
+      <c r="D7" s="32">
+        <v>0</v>
+      </c>
+      <c r="E7" s="32">
+        <v>0.6</v>
+      </c>
+      <c r="F7" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="G7" s="32">
         <v>0</v>
       </c>
       <c r="I7" s="1">
@@ -1076,27 +1362,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>10091406133</v>
       </c>
       <c r="B8" s="9">
-        <v>115794</v>
-      </c>
-      <c r="C8" s="2">
+        <v>439564</v>
+      </c>
+      <c r="C8" s="32">
+        <v>4.8</v>
+      </c>
+      <c r="D8" s="32">
+        <v>3</v>
+      </c>
+      <c r="E8" s="32">
+        <v>3</v>
+      </c>
+      <c r="F8" s="32">
+        <v>3</v>
+      </c>
+      <c r="G8" s="32">
         <v>2</v>
-      </c>
-      <c r="D8" s="2">
-        <v>2</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
       </c>
       <c r="I8" s="1">
         <v>100000</v>
@@ -1114,28 +1400,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>100914061337</v>
       </c>
-      <c r="B9" s="52">
-        <f>Obliczenia!D6</f>
-        <v>1162681.1220113561</v>
-      </c>
-      <c r="C9" s="2">
-        <v>6</v>
-      </c>
-      <c r="D9" s="2">
-        <v>5</v>
-      </c>
-      <c r="E9">
-        <v>7</v>
-      </c>
-      <c r="F9">
-        <v>5</v>
-      </c>
-      <c r="G9">
-        <v>2</v>
+      <c r="B9" s="65">
+        <v>5440768</v>
+      </c>
+      <c r="C9" s="32">
+        <v>16.2</v>
+      </c>
+      <c r="D9" s="32">
+        <v>11.9</v>
+      </c>
+      <c r="E9" s="32">
+        <v>12.2</v>
+      </c>
+      <c r="F9" s="32">
+        <v>11.8</v>
+      </c>
+      <c r="G9" s="32">
+        <v>7.1</v>
       </c>
       <c r="I9" s="1">
         <v>1000000</v>
@@ -1153,28 +1438,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>1009140613399</v>
       </c>
-      <c r="B10" s="52">
-        <f>Obliczenia!D7</f>
-        <v>11635323.345258987</v>
-      </c>
-      <c r="C10" s="2">
-        <v>19</v>
-      </c>
-      <c r="D10" s="2">
-        <v>15</v>
-      </c>
-      <c r="E10">
-        <v>20</v>
-      </c>
-      <c r="F10">
-        <v>16</v>
-      </c>
-      <c r="G10">
-        <v>8</v>
+      <c r="B10" s="36">
+        <f>'Funkcja regresji'!D6</f>
+        <v>54529104.667015292</v>
+      </c>
+      <c r="C10" s="32">
+        <v>44.4</v>
+      </c>
+      <c r="D10" s="32">
+        <v>38.5</v>
+      </c>
+      <c r="E10" s="32">
+        <v>41</v>
+      </c>
+      <c r="F10" s="32">
+        <v>38.9</v>
+      </c>
+      <c r="G10" s="32">
+        <v>25.6</v>
       </c>
       <c r="I10" s="1">
         <v>10000000</v>
@@ -1192,27 +1477,27 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="36" t="s">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="29" t="s">
         <v>25</v>
-      </c>
-      <c r="D11" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="37" t="s">
-        <v>30</v>
       </c>
       <c r="I11" s="1">
         <v>100000000</v>
@@ -1230,27 +1515,27 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>100913</v>
       </c>
       <c r="B12">
-        <v>10511</v>
-      </c>
-      <c r="C12" s="2">
-        <v>66</v>
-      </c>
-      <c r="D12" s="2">
-        <v>60</v>
-      </c>
-      <c r="E12" s="2">
-        <v>58</v>
-      </c>
-      <c r="F12" s="2">
-        <v>67</v>
-      </c>
-      <c r="G12" s="2">
-        <v>35</v>
+        <v>6495</v>
+      </c>
+      <c r="C12" s="71">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="D12" s="71">
+        <v>33.9</v>
+      </c>
+      <c r="E12" s="71">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="F12" s="71">
+        <v>36</v>
+      </c>
+      <c r="G12" s="71">
+        <v>18.2</v>
       </c>
       <c r="I12" s="1">
         <v>1000000000</v>
@@ -1268,29 +1553,29 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>1009139</v>
       </c>
       <c r="B13">
-        <v>62416</v>
-      </c>
-      <c r="C13" s="2">
-        <v>143</v>
-      </c>
-      <c r="D13" s="2">
-        <v>128</v>
-      </c>
-      <c r="E13" s="2">
-        <v>126</v>
-      </c>
-      <c r="F13" s="2">
-        <v>124</v>
-      </c>
-      <c r="G13" s="2">
-        <v>85</v>
-      </c>
-      <c r="H13" s="36"/>
+        <v>65438</v>
+      </c>
+      <c r="C13" s="71">
+        <v>122.6</v>
+      </c>
+      <c r="D13" s="71">
+        <v>105.2</v>
+      </c>
+      <c r="E13" s="71">
+        <v>108.6</v>
+      </c>
+      <c r="F13" s="71">
+        <v>111</v>
+      </c>
+      <c r="G13" s="71">
+        <v>48.8</v>
+      </c>
+      <c r="H13" s="28"/>
       <c r="I13" s="1">
         <v>10000000000</v>
       </c>
@@ -1307,32 +1592,32 @@
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>10091401</v>
       </c>
       <c r="B14">
-        <v>441605</v>
-      </c>
-      <c r="C14" s="2">
-        <v>360</v>
-      </c>
-      <c r="D14" s="2">
-        <v>301</v>
-      </c>
-      <c r="E14" s="2">
-        <v>291</v>
-      </c>
-      <c r="F14" s="2">
-        <v>297</v>
-      </c>
-      <c r="G14" s="2">
-        <v>207</v>
-      </c>
-      <c r="I14" s="49">
+        <v>640554</v>
+      </c>
+      <c r="C14" s="71">
+        <v>389.3</v>
+      </c>
+      <c r="D14" s="71">
+        <v>336.5</v>
+      </c>
+      <c r="E14" s="71">
+        <v>340.1</v>
+      </c>
+      <c r="F14" s="71">
+        <v>366.7</v>
+      </c>
+      <c r="G14" s="71">
+        <v>151.4</v>
+      </c>
+      <c r="I14" s="34">
         <v>100000000000</v>
       </c>
-      <c r="J14" s="49">
+      <c r="J14" s="34">
         <v>161</v>
       </c>
       <c r="K14" s="1">
@@ -1345,27 +1630,27 @@
         <v>354</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>100914061</v>
       </c>
       <c r="B15">
-        <v>3308088</v>
-      </c>
-      <c r="C15" s="2">
-        <v>846</v>
-      </c>
-      <c r="D15" s="2">
-        <v>768</v>
-      </c>
-      <c r="E15" s="2">
-        <v>914</v>
-      </c>
-      <c r="F15" s="2">
-        <v>750</v>
-      </c>
-      <c r="G15" s="2">
-        <v>481</v>
+        <v>6495952</v>
+      </c>
+      <c r="C15" s="71">
+        <v>1234.2</v>
+      </c>
+      <c r="D15" s="71">
+        <v>1117.4000000000001</v>
+      </c>
+      <c r="E15" s="71">
+        <v>1094.0999999999999</v>
+      </c>
+      <c r="F15" s="71">
+        <v>1098.2</v>
+      </c>
+      <c r="G15" s="71">
+        <v>521.5</v>
       </c>
       <c r="I15" s="1">
         <v>1000000000000</v>
@@ -1383,27 +1668,27 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>1009140611</v>
       </c>
       <c r="B16">
-        <v>26728249</v>
-      </c>
-      <c r="C16" s="2">
-        <v>2340</v>
-      </c>
-      <c r="D16" s="2">
-        <v>2124</v>
-      </c>
-      <c r="E16" s="2">
-        <v>2223</v>
-      </c>
-      <c r="F16" s="2">
-        <v>1908</v>
-      </c>
-      <c r="G16" s="2">
-        <v>1265</v>
+        <v>60528468</v>
+      </c>
+      <c r="C16" s="71">
+        <v>3797.1</v>
+      </c>
+      <c r="D16" s="71">
+        <v>3427</v>
+      </c>
+      <c r="E16" s="71">
+        <v>3510.9</v>
+      </c>
+      <c r="F16" s="71">
+        <v>3431</v>
+      </c>
+      <c r="G16" s="71">
+        <v>1838.7</v>
       </c>
       <c r="I16" s="1">
         <v>10000000000000</v>
@@ -1421,27 +1706,27 @@
         <v>4792</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>10091406133</v>
       </c>
       <c r="B17">
-        <v>416698875</v>
-      </c>
-      <c r="C17" s="2">
-        <v>8535</v>
-      </c>
-      <c r="D17" s="2">
-        <v>6374</v>
-      </c>
-      <c r="E17" s="2">
-        <v>6184</v>
-      </c>
-      <c r="F17" s="2">
-        <v>5565</v>
-      </c>
-      <c r="G17" s="2">
-        <v>3835</v>
+        <v>1279283785</v>
+      </c>
+      <c r="C17" s="71">
+        <v>17667.599999999999</v>
+      </c>
+      <c r="D17" s="71">
+        <v>13522.2</v>
+      </c>
+      <c r="E17" s="71">
+        <v>13624.9</v>
+      </c>
+      <c r="F17" s="71">
+        <v>13153.5</v>
+      </c>
+      <c r="G17" s="71">
+        <v>7469.7</v>
       </c>
       <c r="I17" s="1">
         <v>100000000000000</v>
@@ -1459,25 +1744,27 @@
         <v>10767</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>100914061337</v>
       </c>
-      <c r="B18" s="51"/>
-      <c r="C18" s="2">
-        <v>23418</v>
-      </c>
-      <c r="D18" s="2">
-        <v>18370</v>
-      </c>
-      <c r="E18" s="2">
-        <v>19874</v>
-      </c>
-      <c r="F18" s="2">
-        <v>15397</v>
-      </c>
-      <c r="G18" s="2">
-        <v>8957</v>
+      <c r="B18" s="90">
+        <v>12865547796</v>
+      </c>
+      <c r="C18" s="71">
+        <v>55599</v>
+      </c>
+      <c r="D18" s="71">
+        <v>42796.2</v>
+      </c>
+      <c r="E18" s="71">
+        <v>45335.4</v>
+      </c>
+      <c r="F18" s="71">
+        <v>42824.5</v>
+      </c>
+      <c r="G18" s="71">
+        <v>26953.9</v>
       </c>
       <c r="I18" s="1">
         <v>1000000000000000</v>
@@ -1495,25 +1782,28 @@
         <v>29646</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>1009140613399</v>
       </c>
-      <c r="B19" s="51"/>
-      <c r="C19" s="2">
-        <v>64018</v>
-      </c>
-      <c r="D19" s="2">
-        <v>48433</v>
-      </c>
-      <c r="E19" s="2">
-        <v>54216</v>
-      </c>
-      <c r="F19" s="2">
-        <v>42763</v>
-      </c>
-      <c r="G19" s="2">
-        <v>25273</v>
+      <c r="B19" s="94">
+        <f>'Funkcja regresji'!H6</f>
+        <v>128781537172.41736</v>
+      </c>
+      <c r="C19" s="71">
+        <v>156112.6</v>
+      </c>
+      <c r="D19" s="71">
+        <v>139183.9</v>
+      </c>
+      <c r="E19" s="71">
+        <v>144536</v>
+      </c>
+      <c r="F19" s="71">
+        <v>136833.29999999999</v>
+      </c>
+      <c r="G19" s="71">
+        <v>91282.6</v>
       </c>
       <c r="I19" s="1">
         <v>1E+16</v>
@@ -1531,27 +1821,27 @@
         <v>105676</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="36" t="s">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="36" t="s">
+      <c r="C20" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" s="37" t="s">
-        <v>31</v>
+      <c r="D20" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="29" t="s">
+        <v>26</v>
       </c>
       <c r="I20" s="1">
         <v>1E+17</v>
@@ -1569,7 +1859,7 @@
         <v>370073</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>100913</v>
       </c>
@@ -1588,10 +1878,10 @@
       <c r="F21" s="2">
         <v>115</v>
       </c>
-      <c r="G21" s="38">
+      <c r="G21" s="30">
         <v>66</v>
       </c>
-      <c r="H21" s="40"/>
+      <c r="H21" s="32"/>
       <c r="I21" s="1">
         <v>1E+18</v>
       </c>
@@ -1608,7 +1898,7 @@
         <v>1041310</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>1009139</v>
       </c>
@@ -1627,27 +1917,30 @@
       <c r="F22" s="2">
         <v>345</v>
       </c>
-      <c r="G22" s="39">
-        <v>502</v>
-      </c>
-      <c r="H22" s="40"/>
-      <c r="I22" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="J22" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="K22" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="L22" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="M22" s="36" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G22" s="31">
+        <v>168</v>
+      </c>
+      <c r="H22" s="32"/>
+      <c r="I22" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="J22" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="K22" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="L22" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="M22" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="N22" s="66" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>10091401</v>
       </c>
@@ -1666,10 +1959,10 @@
       <c r="F23" s="2">
         <v>1070</v>
       </c>
-      <c r="G23" s="38">
-        <v>1588</v>
-      </c>
-      <c r="H23" s="40"/>
+      <c r="G23" s="30">
+        <v>449</v>
+      </c>
+      <c r="H23" s="32"/>
       <c r="I23" s="1">
         <v>1</v>
       </c>
@@ -1686,7 +1979,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>100914061</v>
       </c>
@@ -1705,10 +1998,10 @@
       <c r="F24" s="2">
         <v>3361</v>
       </c>
-      <c r="G24" s="38">
-        <v>2681</v>
-      </c>
-      <c r="H24" s="40"/>
+      <c r="G24" s="30">
+        <v>1233</v>
+      </c>
+      <c r="H24" s="32"/>
       <c r="I24" s="1">
         <v>10</v>
       </c>
@@ -1725,7 +2018,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>1009140611</v>
       </c>
@@ -1744,10 +2037,10 @@
       <c r="F25" s="2">
         <v>10602</v>
       </c>
-      <c r="G25" s="38">
-        <v>15883</v>
-      </c>
-      <c r="H25" s="40"/>
+      <c r="G25" s="30">
+        <v>3415</v>
+      </c>
+      <c r="H25" s="32"/>
       <c r="I25" s="1">
         <v>100</v>
       </c>
@@ -1764,7 +2057,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>10091406133</v>
       </c>
@@ -1783,11 +2076,11 @@
       <c r="F26" s="2">
         <v>33499</v>
       </c>
-      <c r="G26" s="38">
-        <v>33486</v>
-      </c>
-      <c r="H26" s="40"/>
-      <c r="I26" s="50">
+      <c r="G26" s="30">
+        <v>9628</v>
+      </c>
+      <c r="H26" s="32"/>
+      <c r="I26" s="35">
         <v>1000</v>
       </c>
       <c r="J26" s="1">
@@ -1803,11 +2096,13 @@
         <v>412</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>100914061337</v>
       </c>
-      <c r="B27" s="51"/>
+      <c r="B27" s="67">
+        <v>25228515334</v>
+      </c>
       <c r="C27" s="2">
         <v>158835</v>
       </c>
@@ -1820,10 +2115,10 @@
       <c r="F27" s="2">
         <v>105905</v>
       </c>
-      <c r="G27" s="38">
-        <v>66012</v>
-      </c>
-      <c r="H27" s="40"/>
+      <c r="G27" s="30">
+        <v>27411</v>
+      </c>
+      <c r="H27" s="32"/>
       <c r="I27" s="1">
         <v>10000</v>
       </c>
@@ -1840,11 +2135,14 @@
         <v>904</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>1009140613399</v>
       </c>
-      <c r="B28" s="51"/>
+      <c r="B28" s="37">
+        <f>'Funkcja regresji'!L6</f>
+        <v>252285153351.59384</v>
+      </c>
       <c r="C28" s="2">
         <v>502280</v>
       </c>
@@ -1857,10 +2155,10 @@
       <c r="F28" s="2">
         <v>334869</v>
       </c>
-      <c r="G28" s="38">
-        <v>334854</v>
-      </c>
-      <c r="H28" s="40"/>
+      <c r="G28" s="30">
+        <v>78840</v>
+      </c>
+      <c r="H28" s="32"/>
       <c r="I28" s="1">
         <v>100000</v>
       </c>
@@ -1877,14 +2175,14 @@
         <v>1599</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="40"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="40"/>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
       <c r="I29" s="1">
         <v>1000000</v>
       </c>
@@ -1901,10 +2199,9 @@
         <v>3883</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B30" s="2">
-        <v>25228515334</v>
-      </c>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="32"/>
+      <c r="C30" s="32"/>
       <c r="I30" s="1">
         <v>10000000</v>
       </c>
@@ -1921,10 +2218,9 @@
         <v>5859</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B31" s="53">
-        <v>252285153349</v>
-      </c>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B31" s="37"/>
+      <c r="C31" s="32"/>
       <c r="I31" s="1">
         <v>100000000</v>
       </c>
@@ -1941,7 +2237,7 @@
         <v>33028</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I32" s="1">
         <v>1000000000</v>
       </c>
@@ -1958,7 +2254,8 @@
         <v>131758</v>
       </c>
     </row>
-    <row r="33" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C33" s="70"/>
       <c r="I33" s="1">
         <v>10000000000</v>
       </c>
@@ -1975,7 +2272,8 @@
         <v>314234</v>
       </c>
     </row>
-    <row r="34" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C34" s="70"/>
       <c r="I34" s="1">
         <v>100000000000</v>
       </c>
@@ -1992,7 +2290,8 @@
         <v>758018</v>
       </c>
     </row>
-    <row r="35" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C35" s="70"/>
       <c r="I35" s="1">
         <v>1000000000000</v>
       </c>
@@ -2009,7 +2308,8 @@
         <v>2107775</v>
       </c>
     </row>
-    <row r="36" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C36" s="70"/>
       <c r="I36" s="1">
         <v>10000000000000</v>
       </c>
@@ -2026,7 +2326,8 @@
         <v>876128</v>
       </c>
     </row>
-    <row r="37" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C37" s="70"/>
       <c r="D37" s="12"/>
       <c r="E37" s="12"/>
       <c r="I37" s="1">
@@ -2045,7 +2346,8 @@
         <v>24982727</v>
       </c>
     </row>
-    <row r="38" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C38" s="70"/>
       <c r="I38" s="1">
         <v>1000000000000000</v>
       </c>
@@ -2062,7 +2364,8 @@
         <v>39460888</v>
       </c>
     </row>
-    <row r="39" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C39" s="70"/>
       <c r="I39" s="1">
         <v>1E+16</v>
       </c>
@@ -2079,7 +2382,8 @@
         <v>231567866</v>
       </c>
     </row>
-    <row r="40" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C40" s="70"/>
       <c r="I40" s="1">
         <v>1E+17</v>
       </c>
@@ -2096,7 +2400,7 @@
         <v>1106803447</v>
       </c>
     </row>
-    <row r="41" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:13" x14ac:dyDescent="0.25">
       <c r="I41" s="1">
         <v>1E+18</v>
       </c>
@@ -2119,6 +2423,16 @@
     <mergeCell ref="I1:M1"/>
   </mergeCells>
   <conditionalFormatting sqref="C10:G10">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19:G19">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -2128,7 +2442,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C19:G19">
+  <conditionalFormatting sqref="C28:G28">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -2138,7 +2452,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C28:G28">
+  <conditionalFormatting sqref="J21:M21">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -2148,8 +2462,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J21:M21">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="J41:M41">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2159,15 +2473,3018 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E32"/>
+  <dimension ref="A1:W49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="A41" sqref="A41:J41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="97" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="69" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" s="97" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="97"/>
+      <c r="T1" s="97"/>
+      <c r="U1" s="97"/>
+      <c r="V1" s="97"/>
+      <c r="W1" s="69" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="32">
+        <f>AVERAGE(A2:J2)</f>
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>38</v>
+      </c>
+      <c r="N2">
+        <v>39</v>
+      </c>
+      <c r="O2">
+        <v>39</v>
+      </c>
+      <c r="P2">
+        <v>39</v>
+      </c>
+      <c r="Q2">
+        <v>50</v>
+      </c>
+      <c r="R2">
+        <v>39</v>
+      </c>
+      <c r="S2">
+        <v>38</v>
+      </c>
+      <c r="T2">
+        <v>38</v>
+      </c>
+      <c r="U2">
+        <v>39</v>
+      </c>
+      <c r="V2">
+        <v>38</v>
+      </c>
+      <c r="W2" s="71">
+        <f>AVERAGE(M2:V2)</f>
+        <v>39.700000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="32">
+        <f t="shared" ref="K3:K9" si="0">AVERAGE(A3:J3)</f>
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>117</v>
+      </c>
+      <c r="N3">
+        <v>121</v>
+      </c>
+      <c r="O3">
+        <v>120</v>
+      </c>
+      <c r="P3">
+        <v>120</v>
+      </c>
+      <c r="Q3">
+        <v>154</v>
+      </c>
+      <c r="R3">
+        <v>120</v>
+      </c>
+      <c r="S3">
+        <v>119</v>
+      </c>
+      <c r="T3">
+        <v>117</v>
+      </c>
+      <c r="U3">
+        <v>119</v>
+      </c>
+      <c r="V3">
+        <v>119</v>
+      </c>
+      <c r="W3" s="71">
+        <f t="shared" ref="W3:W49" si="1">AVERAGE(M3:V3)</f>
+        <v>122.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>442</v>
+      </c>
+      <c r="N4">
+        <v>380</v>
+      </c>
+      <c r="O4">
+        <v>379</v>
+      </c>
+      <c r="P4">
+        <v>379</v>
+      </c>
+      <c r="Q4">
+        <v>411</v>
+      </c>
+      <c r="R4">
+        <v>379</v>
+      </c>
+      <c r="S4">
+        <v>377</v>
+      </c>
+      <c r="T4">
+        <v>392</v>
+      </c>
+      <c r="U4">
+        <v>377</v>
+      </c>
+      <c r="V4">
+        <v>377</v>
+      </c>
+      <c r="W4" s="71">
+        <f t="shared" si="1"/>
+        <v>389.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>1177</v>
+      </c>
+      <c r="N5">
+        <v>1199</v>
+      </c>
+      <c r="O5">
+        <v>1214</v>
+      </c>
+      <c r="P5">
+        <v>1227</v>
+      </c>
+      <c r="Q5">
+        <v>1252</v>
+      </c>
+      <c r="R5">
+        <v>1201</v>
+      </c>
+      <c r="S5">
+        <v>1204</v>
+      </c>
+      <c r="T5">
+        <v>1257</v>
+      </c>
+      <c r="U5">
+        <v>1210</v>
+      </c>
+      <c r="V5">
+        <v>1401</v>
+      </c>
+      <c r="W5" s="71">
+        <f t="shared" si="1"/>
+        <v>1234.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6" s="32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>3713</v>
+      </c>
+      <c r="N6">
+        <v>3783</v>
+      </c>
+      <c r="O6">
+        <v>3798</v>
+      </c>
+      <c r="P6">
+        <v>3782</v>
+      </c>
+      <c r="Q6">
+        <v>3869</v>
+      </c>
+      <c r="R6">
+        <v>3878</v>
+      </c>
+      <c r="S6">
+        <v>3850</v>
+      </c>
+      <c r="T6">
+        <v>3779</v>
+      </c>
+      <c r="U6">
+        <v>3747</v>
+      </c>
+      <c r="V6">
+        <v>3772</v>
+      </c>
+      <c r="W6" s="71">
+        <f t="shared" si="1"/>
+        <v>3797.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>7</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="K7" s="32">
+        <f t="shared" si="0"/>
+        <v>4.8</v>
+      </c>
+      <c r="M7">
+        <v>17655</v>
+      </c>
+      <c r="N7">
+        <v>17318</v>
+      </c>
+      <c r="O7">
+        <v>17478</v>
+      </c>
+      <c r="P7">
+        <v>17794</v>
+      </c>
+      <c r="Q7">
+        <v>17747</v>
+      </c>
+      <c r="R7">
+        <v>17961</v>
+      </c>
+      <c r="S7">
+        <v>17654</v>
+      </c>
+      <c r="T7">
+        <v>17283</v>
+      </c>
+      <c r="U7">
+        <v>17326</v>
+      </c>
+      <c r="V7">
+        <v>18460</v>
+      </c>
+      <c r="W7" s="71">
+        <f t="shared" si="1"/>
+        <v>17667.599999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>16</v>
+      </c>
+      <c r="E8">
+        <v>16</v>
+      </c>
+      <c r="F8">
+        <v>22</v>
+      </c>
+      <c r="G8">
+        <v>15</v>
+      </c>
+      <c r="H8">
+        <v>15</v>
+      </c>
+      <c r="I8">
+        <v>15</v>
+      </c>
+      <c r="J8">
+        <v>16</v>
+      </c>
+      <c r="K8" s="32">
+        <f t="shared" si="0"/>
+        <v>16.2</v>
+      </c>
+      <c r="M8">
+        <v>54538</v>
+      </c>
+      <c r="N8">
+        <v>54989</v>
+      </c>
+      <c r="O8">
+        <v>61806</v>
+      </c>
+      <c r="P8">
+        <v>54334</v>
+      </c>
+      <c r="Q8">
+        <v>53833</v>
+      </c>
+      <c r="R8">
+        <v>54888</v>
+      </c>
+      <c r="S8">
+        <v>54985</v>
+      </c>
+      <c r="T8">
+        <v>54095</v>
+      </c>
+      <c r="U8">
+        <v>55715</v>
+      </c>
+      <c r="V8">
+        <v>56807</v>
+      </c>
+      <c r="W8" s="71">
+        <f t="shared" si="1"/>
+        <v>55599</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>47</v>
+      </c>
+      <c r="B9">
+        <v>43</v>
+      </c>
+      <c r="C9">
+        <v>44</v>
+      </c>
+      <c r="D9">
+        <v>44</v>
+      </c>
+      <c r="E9">
+        <v>46</v>
+      </c>
+      <c r="F9">
+        <v>46</v>
+      </c>
+      <c r="G9">
+        <v>43</v>
+      </c>
+      <c r="H9">
+        <v>43</v>
+      </c>
+      <c r="I9">
+        <v>43</v>
+      </c>
+      <c r="J9">
+        <v>45</v>
+      </c>
+      <c r="K9" s="32">
+        <f t="shared" si="0"/>
+        <v>44.4</v>
+      </c>
+      <c r="M9">
+        <v>153687</v>
+      </c>
+      <c r="N9">
+        <v>152642</v>
+      </c>
+      <c r="O9">
+        <v>163844</v>
+      </c>
+      <c r="P9">
+        <v>153718</v>
+      </c>
+      <c r="Q9">
+        <v>153323</v>
+      </c>
+      <c r="R9">
+        <v>153960</v>
+      </c>
+      <c r="S9">
+        <v>159156</v>
+      </c>
+      <c r="T9">
+        <v>157141</v>
+      </c>
+      <c r="U9">
+        <v>155130</v>
+      </c>
+      <c r="V9">
+        <v>158525</v>
+      </c>
+      <c r="W9" s="71">
+        <f t="shared" si="1"/>
+        <v>156112.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W10" s="68"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" s="98" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="98"/>
+      <c r="C11" s="98"/>
+      <c r="D11" s="98"/>
+      <c r="E11" s="98"/>
+      <c r="F11" s="98"/>
+      <c r="G11" s="98"/>
+      <c r="H11" s="98"/>
+      <c r="I11" s="98"/>
+      <c r="J11" s="98"/>
+      <c r="K11" s="69" t="s">
+        <v>47</v>
+      </c>
+      <c r="M11" s="98" t="s">
+        <v>21</v>
+      </c>
+      <c r="N11" s="98"/>
+      <c r="O11" s="98"/>
+      <c r="P11" s="98"/>
+      <c r="Q11" s="98"/>
+      <c r="R11" s="98"/>
+      <c r="S11" s="98"/>
+      <c r="T11" s="98"/>
+      <c r="U11" s="98"/>
+      <c r="V11" s="98"/>
+      <c r="W11" s="69" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12" s="32">
+        <f>AVERAGE(A12:J12)</f>
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>34</v>
+      </c>
+      <c r="N12">
+        <v>34</v>
+      </c>
+      <c r="O12">
+        <v>33</v>
+      </c>
+      <c r="P12">
+        <v>34</v>
+      </c>
+      <c r="Q12">
+        <v>34</v>
+      </c>
+      <c r="R12">
+        <v>34</v>
+      </c>
+      <c r="S12">
+        <v>34</v>
+      </c>
+      <c r="T12">
+        <v>33</v>
+      </c>
+      <c r="U12">
+        <v>34</v>
+      </c>
+      <c r="V12">
+        <v>35</v>
+      </c>
+      <c r="W12" s="71">
+        <f t="shared" si="1"/>
+        <v>33.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13" s="32">
+        <f t="shared" ref="K13:K19" si="2">AVERAGE(A13:J13)</f>
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>109</v>
+      </c>
+      <c r="N13">
+        <v>104</v>
+      </c>
+      <c r="O13">
+        <v>104</v>
+      </c>
+      <c r="P13">
+        <v>104</v>
+      </c>
+      <c r="Q13">
+        <v>104</v>
+      </c>
+      <c r="R13">
+        <v>104</v>
+      </c>
+      <c r="S13">
+        <v>104</v>
+      </c>
+      <c r="T13">
+        <v>111</v>
+      </c>
+      <c r="U13">
+        <v>104</v>
+      </c>
+      <c r="V13">
+        <v>104</v>
+      </c>
+      <c r="W13" s="71">
+        <f t="shared" si="1"/>
+        <v>105.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>329</v>
+      </c>
+      <c r="N14">
+        <v>328</v>
+      </c>
+      <c r="O14">
+        <v>329</v>
+      </c>
+      <c r="P14">
+        <v>329</v>
+      </c>
+      <c r="Q14">
+        <v>329</v>
+      </c>
+      <c r="R14">
+        <v>335</v>
+      </c>
+      <c r="S14">
+        <v>330</v>
+      </c>
+      <c r="T14">
+        <v>333</v>
+      </c>
+      <c r="U14">
+        <v>383</v>
+      </c>
+      <c r="V14">
+        <v>340</v>
+      </c>
+      <c r="W14" s="71">
+        <f t="shared" si="1"/>
+        <v>336.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>1145</v>
+      </c>
+      <c r="N15">
+        <v>1065</v>
+      </c>
+      <c r="O15">
+        <v>1046</v>
+      </c>
+      <c r="P15">
+        <v>1068</v>
+      </c>
+      <c r="Q15">
+        <v>1062</v>
+      </c>
+      <c r="R15">
+        <v>1063</v>
+      </c>
+      <c r="S15">
+        <v>1409</v>
+      </c>
+      <c r="T15">
+        <v>1078</v>
+      </c>
+      <c r="U15">
+        <v>1038</v>
+      </c>
+      <c r="V15">
+        <v>1200</v>
+      </c>
+      <c r="W15" s="71">
+        <f t="shared" si="1"/>
+        <v>1117.4000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>3402</v>
+      </c>
+      <c r="N16">
+        <v>3443</v>
+      </c>
+      <c r="O16">
+        <v>3524</v>
+      </c>
+      <c r="P16">
+        <v>3464</v>
+      </c>
+      <c r="Q16">
+        <v>3431</v>
+      </c>
+      <c r="R16">
+        <v>3425</v>
+      </c>
+      <c r="S16">
+        <v>3394</v>
+      </c>
+      <c r="T16">
+        <v>3427</v>
+      </c>
+      <c r="U16">
+        <v>3329</v>
+      </c>
+      <c r="V16">
+        <v>3431</v>
+      </c>
+      <c r="W16" s="71">
+        <f t="shared" si="1"/>
+        <v>3427</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
+      <c r="I17">
+        <v>3</v>
+      </c>
+      <c r="J17">
+        <v>3</v>
+      </c>
+      <c r="K17" s="32">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M17">
+        <v>13480</v>
+      </c>
+      <c r="N17">
+        <v>13338</v>
+      </c>
+      <c r="O17">
+        <v>13324</v>
+      </c>
+      <c r="P17">
+        <v>13349</v>
+      </c>
+      <c r="Q17">
+        <v>13545</v>
+      </c>
+      <c r="R17">
+        <v>13515</v>
+      </c>
+      <c r="S17">
+        <v>14136</v>
+      </c>
+      <c r="T17">
+        <v>13473</v>
+      </c>
+      <c r="U17">
+        <v>13000</v>
+      </c>
+      <c r="V17">
+        <v>14062</v>
+      </c>
+      <c r="W17" s="71">
+        <f t="shared" si="1"/>
+        <v>13522.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>12</v>
+      </c>
+      <c r="B18">
+        <v>11</v>
+      </c>
+      <c r="C18">
+        <v>12</v>
+      </c>
+      <c r="D18">
+        <v>12</v>
+      </c>
+      <c r="E18">
+        <v>12</v>
+      </c>
+      <c r="F18">
+        <v>12</v>
+      </c>
+      <c r="G18">
+        <v>12</v>
+      </c>
+      <c r="H18">
+        <v>12</v>
+      </c>
+      <c r="I18">
+        <v>12</v>
+      </c>
+      <c r="J18">
+        <v>12</v>
+      </c>
+      <c r="K18" s="32">
+        <f t="shared" si="2"/>
+        <v>11.9</v>
+      </c>
+      <c r="M18">
+        <v>41972</v>
+      </c>
+      <c r="N18">
+        <v>42346</v>
+      </c>
+      <c r="O18">
+        <v>44692</v>
+      </c>
+      <c r="P18">
+        <v>42724</v>
+      </c>
+      <c r="Q18">
+        <v>42396</v>
+      </c>
+      <c r="R18">
+        <v>42659</v>
+      </c>
+      <c r="S18">
+        <v>44650</v>
+      </c>
+      <c r="T18">
+        <v>42449</v>
+      </c>
+      <c r="U18">
+        <v>41133</v>
+      </c>
+      <c r="V18">
+        <v>42941</v>
+      </c>
+      <c r="W18" s="71">
+        <f t="shared" si="1"/>
+        <v>42796.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>38</v>
+      </c>
+      <c r="B19">
+        <v>38</v>
+      </c>
+      <c r="C19">
+        <v>38</v>
+      </c>
+      <c r="D19">
+        <v>39</v>
+      </c>
+      <c r="E19">
+        <v>39</v>
+      </c>
+      <c r="F19">
+        <v>38</v>
+      </c>
+      <c r="G19">
+        <v>39</v>
+      </c>
+      <c r="H19">
+        <v>38</v>
+      </c>
+      <c r="I19">
+        <v>38</v>
+      </c>
+      <c r="J19">
+        <v>40</v>
+      </c>
+      <c r="K19" s="32">
+        <f t="shared" si="2"/>
+        <v>38.5</v>
+      </c>
+      <c r="M19">
+        <v>136646</v>
+      </c>
+      <c r="N19">
+        <v>138417</v>
+      </c>
+      <c r="O19">
+        <v>141497</v>
+      </c>
+      <c r="P19">
+        <v>138779</v>
+      </c>
+      <c r="Q19">
+        <v>138598</v>
+      </c>
+      <c r="R19">
+        <v>136883</v>
+      </c>
+      <c r="S19">
+        <v>143080</v>
+      </c>
+      <c r="T19">
+        <v>137712</v>
+      </c>
+      <c r="U19">
+        <v>139572</v>
+      </c>
+      <c r="V19">
+        <v>140655</v>
+      </c>
+      <c r="W19" s="71">
+        <f t="shared" si="1"/>
+        <v>139183.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W20" s="68"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21" s="98" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="98"/>
+      <c r="C21" s="98"/>
+      <c r="D21" s="98"/>
+      <c r="E21" s="98"/>
+      <c r="F21" s="98"/>
+      <c r="G21" s="98"/>
+      <c r="H21" s="98"/>
+      <c r="I21" s="98"/>
+      <c r="J21" s="98"/>
+      <c r="K21" s="69" t="s">
+        <v>47</v>
+      </c>
+      <c r="M21" s="98" t="s">
+        <v>22</v>
+      </c>
+      <c r="N21" s="98"/>
+      <c r="O21" s="98"/>
+      <c r="P21" s="98"/>
+      <c r="Q21" s="98"/>
+      <c r="R21" s="98"/>
+      <c r="S21" s="98"/>
+      <c r="T21" s="98"/>
+      <c r="U21" s="98"/>
+      <c r="V21" s="98"/>
+      <c r="W21" s="69" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22" s="32">
+        <f>AVERAGE(A22:J22)</f>
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>41</v>
+      </c>
+      <c r="N22">
+        <v>37</v>
+      </c>
+      <c r="O22">
+        <v>42</v>
+      </c>
+      <c r="P22">
+        <v>36</v>
+      </c>
+      <c r="Q22">
+        <v>53</v>
+      </c>
+      <c r="R22">
+        <v>42</v>
+      </c>
+      <c r="S22">
+        <v>36</v>
+      </c>
+      <c r="T22">
+        <v>37</v>
+      </c>
+      <c r="U22">
+        <v>36</v>
+      </c>
+      <c r="V22">
+        <v>42</v>
+      </c>
+      <c r="W22" s="71">
+        <f t="shared" si="1"/>
+        <v>40.200000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23" s="32">
+        <f t="shared" ref="K23:K29" si="3">AVERAGE(A23:J23)</f>
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>107</v>
+      </c>
+      <c r="N23">
+        <v>107</v>
+      </c>
+      <c r="O23">
+        <v>107</v>
+      </c>
+      <c r="P23">
+        <v>107</v>
+      </c>
+      <c r="Q23">
+        <v>113</v>
+      </c>
+      <c r="R23">
+        <v>110</v>
+      </c>
+      <c r="S23">
+        <v>109</v>
+      </c>
+      <c r="T23">
+        <v>110</v>
+      </c>
+      <c r="U23">
+        <v>108</v>
+      </c>
+      <c r="V23">
+        <v>108</v>
+      </c>
+      <c r="W23" s="71">
+        <f t="shared" si="1"/>
+        <v>108.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24" s="32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>334</v>
+      </c>
+      <c r="N24">
+        <v>334</v>
+      </c>
+      <c r="O24">
+        <v>341</v>
+      </c>
+      <c r="P24">
+        <v>334</v>
+      </c>
+      <c r="Q24">
+        <v>352</v>
+      </c>
+      <c r="R24">
+        <v>343</v>
+      </c>
+      <c r="S24">
+        <v>338</v>
+      </c>
+      <c r="T24">
+        <v>351</v>
+      </c>
+      <c r="U24">
+        <v>337</v>
+      </c>
+      <c r="V24">
+        <v>337</v>
+      </c>
+      <c r="W24" s="71">
+        <f t="shared" si="1"/>
+        <v>340.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25" s="32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>1083</v>
+      </c>
+      <c r="N25">
+        <v>1105</v>
+      </c>
+      <c r="O25">
+        <v>1105</v>
+      </c>
+      <c r="P25">
+        <v>1093</v>
+      </c>
+      <c r="Q25">
+        <v>1087</v>
+      </c>
+      <c r="R25">
+        <v>1087</v>
+      </c>
+      <c r="S25">
+        <v>1133</v>
+      </c>
+      <c r="T25">
+        <v>1080</v>
+      </c>
+      <c r="U25">
+        <v>1060</v>
+      </c>
+      <c r="V25">
+        <v>1108</v>
+      </c>
+      <c r="W25" s="71">
+        <f t="shared" si="1"/>
+        <v>1094.0999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26" s="32">
+        <f t="shared" si="3"/>
+        <v>0.6</v>
+      </c>
+      <c r="M26">
+        <v>3509</v>
+      </c>
+      <c r="N26">
+        <v>3484</v>
+      </c>
+      <c r="O26">
+        <v>3508</v>
+      </c>
+      <c r="P26">
+        <v>3464</v>
+      </c>
+      <c r="Q26">
+        <v>3419</v>
+      </c>
+      <c r="R26">
+        <v>3479</v>
+      </c>
+      <c r="S26">
+        <v>3549</v>
+      </c>
+      <c r="T26">
+        <v>3558</v>
+      </c>
+      <c r="U26">
+        <v>3549</v>
+      </c>
+      <c r="V26">
+        <v>3590</v>
+      </c>
+      <c r="W26" s="71">
+        <f t="shared" si="1"/>
+        <v>3510.9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+      <c r="G27">
+        <v>3</v>
+      </c>
+      <c r="H27">
+        <v>3</v>
+      </c>
+      <c r="I27">
+        <v>3</v>
+      </c>
+      <c r="J27">
+        <v>3</v>
+      </c>
+      <c r="K27" s="32">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="M27">
+        <v>13533</v>
+      </c>
+      <c r="N27">
+        <v>14231</v>
+      </c>
+      <c r="O27">
+        <v>13852</v>
+      </c>
+      <c r="P27">
+        <v>13367</v>
+      </c>
+      <c r="Q27">
+        <v>13444</v>
+      </c>
+      <c r="R27">
+        <v>13407</v>
+      </c>
+      <c r="S27">
+        <v>13765</v>
+      </c>
+      <c r="T27">
+        <v>13001</v>
+      </c>
+      <c r="U27">
+        <v>13559</v>
+      </c>
+      <c r="V27">
+        <v>14090</v>
+      </c>
+      <c r="W27" s="71">
+        <f t="shared" si="1"/>
+        <v>13624.9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>12</v>
+      </c>
+      <c r="B28">
+        <v>12</v>
+      </c>
+      <c r="C28">
+        <v>12</v>
+      </c>
+      <c r="D28">
+        <v>12</v>
+      </c>
+      <c r="E28">
+        <v>13</v>
+      </c>
+      <c r="F28">
+        <v>12</v>
+      </c>
+      <c r="G28">
+        <v>12</v>
+      </c>
+      <c r="H28">
+        <v>12</v>
+      </c>
+      <c r="I28">
+        <v>12</v>
+      </c>
+      <c r="J28">
+        <v>13</v>
+      </c>
+      <c r="K28" s="32">
+        <f t="shared" si="3"/>
+        <v>12.2</v>
+      </c>
+      <c r="M28">
+        <v>44422</v>
+      </c>
+      <c r="N28">
+        <v>45108</v>
+      </c>
+      <c r="O28">
+        <v>44866</v>
+      </c>
+      <c r="P28">
+        <v>44618</v>
+      </c>
+      <c r="Q28">
+        <v>44957</v>
+      </c>
+      <c r="R28">
+        <v>44373</v>
+      </c>
+      <c r="S28">
+        <v>46123</v>
+      </c>
+      <c r="T28">
+        <v>44568</v>
+      </c>
+      <c r="U28">
+        <v>45185</v>
+      </c>
+      <c r="V28">
+        <v>49134</v>
+      </c>
+      <c r="W28" s="71">
+        <f t="shared" si="1"/>
+        <v>45335.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>41</v>
+      </c>
+      <c r="B29">
+        <v>41</v>
+      </c>
+      <c r="C29">
+        <v>41</v>
+      </c>
+      <c r="D29">
+        <v>41</v>
+      </c>
+      <c r="E29">
+        <v>43</v>
+      </c>
+      <c r="F29">
+        <v>40</v>
+      </c>
+      <c r="G29">
+        <v>41</v>
+      </c>
+      <c r="H29">
+        <v>40</v>
+      </c>
+      <c r="I29">
+        <v>40</v>
+      </c>
+      <c r="J29">
+        <v>42</v>
+      </c>
+      <c r="K29" s="32">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+      <c r="M29">
+        <v>141609</v>
+      </c>
+      <c r="N29">
+        <v>142810</v>
+      </c>
+      <c r="O29">
+        <v>145382</v>
+      </c>
+      <c r="P29">
+        <v>141904</v>
+      </c>
+      <c r="Q29">
+        <v>142878</v>
+      </c>
+      <c r="R29">
+        <v>141786</v>
+      </c>
+      <c r="S29">
+        <v>144845</v>
+      </c>
+      <c r="T29">
+        <v>143476</v>
+      </c>
+      <c r="U29">
+        <v>144424</v>
+      </c>
+      <c r="V29">
+        <v>156246</v>
+      </c>
+      <c r="W29" s="71">
+        <f t="shared" si="1"/>
+        <v>144536</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W30" s="68"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A31" s="98" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="98"/>
+      <c r="C31" s="98"/>
+      <c r="D31" s="98"/>
+      <c r="E31" s="98"/>
+      <c r="F31" s="98"/>
+      <c r="G31" s="98"/>
+      <c r="H31" s="98"/>
+      <c r="I31" s="98"/>
+      <c r="J31" s="98"/>
+      <c r="K31" s="69" t="s">
+        <v>47</v>
+      </c>
+      <c r="M31" s="98" t="s">
+        <v>23</v>
+      </c>
+      <c r="N31" s="98"/>
+      <c r="O31" s="98"/>
+      <c r="P31" s="98"/>
+      <c r="Q31" s="98"/>
+      <c r="R31" s="98"/>
+      <c r="S31" s="98"/>
+      <c r="T31" s="98"/>
+      <c r="U31" s="98"/>
+      <c r="V31" s="98"/>
+      <c r="W31" s="69" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32" s="32">
+        <f>AVERAGE(A32:J32)</f>
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>35</v>
+      </c>
+      <c r="N32">
+        <v>35</v>
+      </c>
+      <c r="O32">
+        <v>36</v>
+      </c>
+      <c r="P32">
+        <v>36</v>
+      </c>
+      <c r="Q32">
+        <v>35</v>
+      </c>
+      <c r="R32">
+        <v>41</v>
+      </c>
+      <c r="S32">
+        <v>37</v>
+      </c>
+      <c r="T32">
+        <v>35</v>
+      </c>
+      <c r="U32">
+        <v>35</v>
+      </c>
+      <c r="V32">
+        <v>35</v>
+      </c>
+      <c r="W32" s="71">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33" s="32">
+        <f t="shared" ref="K33:K39" si="4">AVERAGE(A33:J33)</f>
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>151</v>
+      </c>
+      <c r="N33">
+        <v>106</v>
+      </c>
+      <c r="O33">
+        <v>108</v>
+      </c>
+      <c r="P33">
+        <v>105</v>
+      </c>
+      <c r="Q33">
+        <v>106</v>
+      </c>
+      <c r="R33">
+        <v>106</v>
+      </c>
+      <c r="S33">
+        <v>112</v>
+      </c>
+      <c r="T33">
+        <v>105</v>
+      </c>
+      <c r="U33">
+        <v>105</v>
+      </c>
+      <c r="V33">
+        <v>106</v>
+      </c>
+      <c r="W33" s="71">
+        <f t="shared" si="1"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34" s="32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>329</v>
+      </c>
+      <c r="N34">
+        <v>328</v>
+      </c>
+      <c r="O34">
+        <v>576</v>
+      </c>
+      <c r="P34">
+        <v>416</v>
+      </c>
+      <c r="Q34">
+        <v>329</v>
+      </c>
+      <c r="R34">
+        <v>329</v>
+      </c>
+      <c r="S34">
+        <v>355</v>
+      </c>
+      <c r="T34">
+        <v>338</v>
+      </c>
+      <c r="U34">
+        <v>339</v>
+      </c>
+      <c r="V34">
+        <v>328</v>
+      </c>
+      <c r="W34" s="71">
+        <f t="shared" si="1"/>
+        <v>366.7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35" s="32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>1067</v>
+      </c>
+      <c r="N35">
+        <v>1054</v>
+      </c>
+      <c r="O35">
+        <v>1097</v>
+      </c>
+      <c r="P35">
+        <v>1075</v>
+      </c>
+      <c r="Q35">
+        <v>1069</v>
+      </c>
+      <c r="R35">
+        <v>1063</v>
+      </c>
+      <c r="S35">
+        <v>1368</v>
+      </c>
+      <c r="T35">
+        <v>1067</v>
+      </c>
+      <c r="U35">
+        <v>1083</v>
+      </c>
+      <c r="V35">
+        <v>1039</v>
+      </c>
+      <c r="W35" s="71">
+        <f t="shared" si="1"/>
+        <v>1098.2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36" s="32">
+        <f>AVERAGE(A36:J36)</f>
+        <v>0.2</v>
+      </c>
+      <c r="M36">
+        <v>3387</v>
+      </c>
+      <c r="N36">
+        <v>3380</v>
+      </c>
+      <c r="O36">
+        <v>3471</v>
+      </c>
+      <c r="P36">
+        <v>3391</v>
+      </c>
+      <c r="Q36">
+        <v>3476</v>
+      </c>
+      <c r="R36">
+        <v>3424</v>
+      </c>
+      <c r="S36">
+        <v>3629</v>
+      </c>
+      <c r="T36">
+        <v>3413</v>
+      </c>
+      <c r="U36">
+        <v>3428</v>
+      </c>
+      <c r="V36">
+        <v>3311</v>
+      </c>
+      <c r="W36" s="71">
+        <f t="shared" si="1"/>
+        <v>3431</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>3</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>3</v>
+      </c>
+      <c r="G37">
+        <v>3</v>
+      </c>
+      <c r="H37">
+        <v>3</v>
+      </c>
+      <c r="I37">
+        <v>3</v>
+      </c>
+      <c r="J37">
+        <v>3</v>
+      </c>
+      <c r="K37" s="32">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="M37">
+        <v>12817</v>
+      </c>
+      <c r="N37">
+        <v>13060</v>
+      </c>
+      <c r="O37">
+        <v>13551</v>
+      </c>
+      <c r="P37">
+        <v>12759</v>
+      </c>
+      <c r="Q37">
+        <v>12823</v>
+      </c>
+      <c r="R37">
+        <v>12894</v>
+      </c>
+      <c r="S37">
+        <v>14203</v>
+      </c>
+      <c r="T37">
+        <v>12921</v>
+      </c>
+      <c r="U37">
+        <v>13887</v>
+      </c>
+      <c r="V37">
+        <v>12620</v>
+      </c>
+      <c r="W37" s="71">
+        <f t="shared" si="1"/>
+        <v>13153.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>12</v>
+      </c>
+      <c r="B38">
+        <v>12</v>
+      </c>
+      <c r="C38">
+        <v>11</v>
+      </c>
+      <c r="D38">
+        <v>12</v>
+      </c>
+      <c r="E38">
+        <v>12</v>
+      </c>
+      <c r="F38">
+        <v>12</v>
+      </c>
+      <c r="G38">
+        <v>12</v>
+      </c>
+      <c r="H38">
+        <v>11</v>
+      </c>
+      <c r="I38">
+        <v>12</v>
+      </c>
+      <c r="J38">
+        <v>12</v>
+      </c>
+      <c r="K38" s="32">
+        <f t="shared" si="4"/>
+        <v>11.8</v>
+      </c>
+      <c r="M38">
+        <v>41614</v>
+      </c>
+      <c r="N38">
+        <v>42157</v>
+      </c>
+      <c r="O38">
+        <v>43519</v>
+      </c>
+      <c r="P38">
+        <v>42152</v>
+      </c>
+      <c r="Q38">
+        <v>42131</v>
+      </c>
+      <c r="R38">
+        <v>42354</v>
+      </c>
+      <c r="S38">
+        <v>46238</v>
+      </c>
+      <c r="T38">
+        <v>41962</v>
+      </c>
+      <c r="U38">
+        <v>45612</v>
+      </c>
+      <c r="V38">
+        <v>40506</v>
+      </c>
+      <c r="W38" s="71">
+        <f t="shared" si="1"/>
+        <v>42824.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>40</v>
+      </c>
+      <c r="C39">
+        <v>38</v>
+      </c>
+      <c r="D39">
+        <v>38</v>
+      </c>
+      <c r="E39">
+        <v>40</v>
+      </c>
+      <c r="F39">
+        <v>38</v>
+      </c>
+      <c r="G39">
+        <v>38</v>
+      </c>
+      <c r="H39">
+        <v>38</v>
+      </c>
+      <c r="I39">
+        <v>41</v>
+      </c>
+      <c r="J39">
+        <v>40</v>
+      </c>
+      <c r="K39" s="32">
+        <f t="shared" si="4"/>
+        <v>38.9</v>
+      </c>
+      <c r="M39">
+        <v>134283</v>
+      </c>
+      <c r="N39">
+        <v>133182</v>
+      </c>
+      <c r="O39">
+        <v>139332</v>
+      </c>
+      <c r="P39">
+        <v>134192</v>
+      </c>
+      <c r="Q39">
+        <v>133763</v>
+      </c>
+      <c r="R39">
+        <v>131998</v>
+      </c>
+      <c r="S39">
+        <v>147855</v>
+      </c>
+      <c r="T39">
+        <v>134992</v>
+      </c>
+      <c r="U39">
+        <v>145543</v>
+      </c>
+      <c r="V39">
+        <v>133193</v>
+      </c>
+      <c r="W39" s="71">
+        <f t="shared" si="1"/>
+        <v>136833.29999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W40" s="68"/>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A41" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" s="98"/>
+      <c r="C41" s="98"/>
+      <c r="D41" s="98"/>
+      <c r="E41" s="98"/>
+      <c r="F41" s="98"/>
+      <c r="G41" s="98"/>
+      <c r="H41" s="98"/>
+      <c r="I41" s="98"/>
+      <c r="J41" s="98"/>
+      <c r="K41" s="69" t="s">
+        <v>47</v>
+      </c>
+      <c r="M41" s="98" t="s">
+        <v>48</v>
+      </c>
+      <c r="N41" s="98"/>
+      <c r="O41" s="98"/>
+      <c r="P41" s="98"/>
+      <c r="Q41" s="98"/>
+      <c r="R41" s="98"/>
+      <c r="S41" s="98"/>
+      <c r="T41" s="98"/>
+      <c r="U41" s="98"/>
+      <c r="V41" s="98"/>
+      <c r="W41" s="69" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42" s="32">
+        <f>AVERAGE(A42:J42)</f>
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>24</v>
+      </c>
+      <c r="N42">
+        <v>29</v>
+      </c>
+      <c r="O42">
+        <v>16</v>
+      </c>
+      <c r="P42">
+        <v>16</v>
+      </c>
+      <c r="Q42">
+        <v>16</v>
+      </c>
+      <c r="R42">
+        <v>16</v>
+      </c>
+      <c r="S42">
+        <v>17</v>
+      </c>
+      <c r="T42">
+        <v>16</v>
+      </c>
+      <c r="U42">
+        <v>16</v>
+      </c>
+      <c r="V42">
+        <v>16</v>
+      </c>
+      <c r="W42" s="71">
+        <f t="shared" si="1"/>
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43" s="32">
+        <f t="shared" ref="K43:K49" si="5">AVERAGE(A43:J43)</f>
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>48</v>
+      </c>
+      <c r="N43">
+        <v>49</v>
+      </c>
+      <c r="O43">
+        <v>49</v>
+      </c>
+      <c r="P43">
+        <v>50</v>
+      </c>
+      <c r="Q43">
+        <v>48</v>
+      </c>
+      <c r="R43">
+        <v>48</v>
+      </c>
+      <c r="S43">
+        <v>48</v>
+      </c>
+      <c r="T43">
+        <v>48</v>
+      </c>
+      <c r="U43">
+        <v>47</v>
+      </c>
+      <c r="V43">
+        <v>53</v>
+      </c>
+      <c r="W43" s="71">
+        <f t="shared" si="1"/>
+        <v>48.8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44" s="32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>149</v>
+      </c>
+      <c r="N44">
+        <v>148</v>
+      </c>
+      <c r="O44">
+        <v>149</v>
+      </c>
+      <c r="P44">
+        <v>171</v>
+      </c>
+      <c r="Q44">
+        <v>149</v>
+      </c>
+      <c r="R44">
+        <v>148</v>
+      </c>
+      <c r="S44">
+        <v>156</v>
+      </c>
+      <c r="T44">
+        <v>149</v>
+      </c>
+      <c r="U44">
+        <v>147</v>
+      </c>
+      <c r="V44">
+        <v>148</v>
+      </c>
+      <c r="W44" s="71">
+        <f t="shared" si="1"/>
+        <v>151.4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45" s="32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>487</v>
+      </c>
+      <c r="N45">
+        <v>479</v>
+      </c>
+      <c r="O45">
+        <v>490</v>
+      </c>
+      <c r="P45">
+        <v>516</v>
+      </c>
+      <c r="Q45">
+        <v>497</v>
+      </c>
+      <c r="R45">
+        <v>500</v>
+      </c>
+      <c r="S45">
+        <v>523</v>
+      </c>
+      <c r="T45">
+        <v>500</v>
+      </c>
+      <c r="U45">
+        <v>737</v>
+      </c>
+      <c r="V45">
+        <v>486</v>
+      </c>
+      <c r="W45" s="71">
+        <f t="shared" si="1"/>
+        <v>521.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>0</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46" s="32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>1806</v>
+      </c>
+      <c r="N46">
+        <v>1804</v>
+      </c>
+      <c r="O46">
+        <v>1789</v>
+      </c>
+      <c r="P46">
+        <v>1800</v>
+      </c>
+      <c r="Q46">
+        <v>1894</v>
+      </c>
+      <c r="R46">
+        <v>1881</v>
+      </c>
+      <c r="S46">
+        <v>1884</v>
+      </c>
+      <c r="T46">
+        <v>1833</v>
+      </c>
+      <c r="U46">
+        <v>1826</v>
+      </c>
+      <c r="V46">
+        <v>1870</v>
+      </c>
+      <c r="W46" s="71">
+        <f t="shared" si="1"/>
+        <v>1838.7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>2</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
+      <c r="F47">
+        <v>2</v>
+      </c>
+      <c r="G47">
+        <v>2</v>
+      </c>
+      <c r="H47">
+        <v>2</v>
+      </c>
+      <c r="I47">
+        <v>2</v>
+      </c>
+      <c r="J47">
+        <v>2</v>
+      </c>
+      <c r="K47" s="32">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="M47">
+        <v>7227</v>
+      </c>
+      <c r="N47">
+        <v>7436</v>
+      </c>
+      <c r="O47">
+        <v>7897</v>
+      </c>
+      <c r="P47">
+        <v>7178</v>
+      </c>
+      <c r="Q47">
+        <v>7463</v>
+      </c>
+      <c r="R47">
+        <v>7537</v>
+      </c>
+      <c r="S47">
+        <v>7571</v>
+      </c>
+      <c r="T47">
+        <v>7514</v>
+      </c>
+      <c r="U47">
+        <v>7785</v>
+      </c>
+      <c r="V47">
+        <v>7089</v>
+      </c>
+      <c r="W47" s="71">
+        <f t="shared" si="1"/>
+        <v>7469.7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>7</v>
+      </c>
+      <c r="B48">
+        <v>8</v>
+      </c>
+      <c r="C48">
+        <v>7</v>
+      </c>
+      <c r="D48">
+        <v>7</v>
+      </c>
+      <c r="E48">
+        <v>7</v>
+      </c>
+      <c r="F48">
+        <v>7</v>
+      </c>
+      <c r="G48">
+        <v>7</v>
+      </c>
+      <c r="H48">
+        <v>7</v>
+      </c>
+      <c r="I48">
+        <v>7</v>
+      </c>
+      <c r="J48">
+        <v>7</v>
+      </c>
+      <c r="K48" s="32">
+        <f t="shared" si="5"/>
+        <v>7.1</v>
+      </c>
+      <c r="M48">
+        <v>26704</v>
+      </c>
+      <c r="N48">
+        <v>26544</v>
+      </c>
+      <c r="O48">
+        <v>28445</v>
+      </c>
+      <c r="P48">
+        <v>25938</v>
+      </c>
+      <c r="Q48">
+        <v>26977</v>
+      </c>
+      <c r="R48">
+        <v>27198</v>
+      </c>
+      <c r="S48">
+        <v>28093</v>
+      </c>
+      <c r="T48">
+        <v>26070</v>
+      </c>
+      <c r="U48">
+        <v>27614</v>
+      </c>
+      <c r="V48">
+        <v>25956</v>
+      </c>
+      <c r="W48" s="71">
+        <f t="shared" si="1"/>
+        <v>26953.9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>26</v>
+      </c>
+      <c r="B49">
+        <v>28</v>
+      </c>
+      <c r="C49">
+        <v>25</v>
+      </c>
+      <c r="D49">
+        <v>26</v>
+      </c>
+      <c r="E49">
+        <v>25</v>
+      </c>
+      <c r="F49">
+        <v>25</v>
+      </c>
+      <c r="G49">
+        <v>25</v>
+      </c>
+      <c r="H49">
+        <v>25</v>
+      </c>
+      <c r="I49">
+        <v>25</v>
+      </c>
+      <c r="J49">
+        <v>26</v>
+      </c>
+      <c r="K49" s="32">
+        <f t="shared" si="5"/>
+        <v>25.6</v>
+      </c>
+      <c r="M49">
+        <v>92061</v>
+      </c>
+      <c r="N49">
+        <v>91090</v>
+      </c>
+      <c r="O49">
+        <v>91786</v>
+      </c>
+      <c r="P49">
+        <v>90272</v>
+      </c>
+      <c r="Q49">
+        <v>92048</v>
+      </c>
+      <c r="R49">
+        <v>91961</v>
+      </c>
+      <c r="S49">
+        <v>91154</v>
+      </c>
+      <c r="T49">
+        <v>89236</v>
+      </c>
+      <c r="U49">
+        <v>93301</v>
+      </c>
+      <c r="V49">
+        <v>89917</v>
+      </c>
+      <c r="W49" s="71">
+        <f t="shared" si="1"/>
+        <v>91282.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="M1:V1"/>
+    <mergeCell ref="M11:V11"/>
+    <mergeCell ref="M21:V21"/>
+    <mergeCell ref="M31:V31"/>
+    <mergeCell ref="M41:V41"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A41:J41"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:M32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2176,259 +5493,524 @@
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.7109375" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" customWidth="1"/>
+    <col min="11" max="11" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.28515625" customWidth="1"/>
+    <col min="13" max="13" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="99" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="99"/>
+      <c r="G1" s="98" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="98"/>
+      <c r="K1" s="98" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="98"/>
+    </row>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="11">
-        <f t="array" ref="C3:D3">LINEST(Wyniki!B3:B8,Wyniki!A3:A8,TRUE)</f>
-        <v>1.1530869912876889E-5</v>
+        <f t="array" ref="C3:D3">LINEST(Dane!B3:B9,Dane!A3:A9,TRUE)</f>
+        <v>5.4057828267388338E-5</v>
       </c>
       <c r="D3" s="10">
-        <v>-945.79164567040789</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C4" s="42" t="s">
+        <v>-22845.309754775604</v>
+      </c>
+      <c r="G3" s="41">
+        <f t="array" ref="G3:H3">LINEST(Dane!B12:B17,Dane!A12:A17,1,0)</f>
+        <v>0.12762893697974376</v>
+      </c>
+      <c r="H3" s="42">
+        <v>-14006578.783572227</v>
+      </c>
+      <c r="K3" s="56">
+        <f t="array" ref="K3:L3">LINEST(Dane!B21:B27,Dane!A21:A27,1,0)</f>
+        <v>0.25000000000182715</v>
+      </c>
+      <c r="L3" s="57">
+        <v>-0.42212438583374023</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C4" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="43"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C5" s="21" t="s">
+      <c r="D4" s="105"/>
+      <c r="G4" s="106" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="107"/>
+      <c r="K4" s="106" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" s="107"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C5" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="21" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C6" s="23">
-        <v>100914061337</v>
-      </c>
-      <c r="D6" s="24">
+      <c r="G5" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" s="40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="4">
+        <f>Dane!A10</f>
+        <v>1009140613399</v>
+      </c>
+      <c r="D6" s="15">
         <f>C6*$C$3+$D$3</f>
-        <v>1162681.1220113561</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="4">
+        <v>54529104.667015292</v>
+      </c>
+      <c r="G6" s="43">
         <v>1009140613399</v>
       </c>
-      <c r="D7" s="15">
-        <f>C7*$C$3+$D$3</f>
-        <v>11635323.345258987</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="H6" s="15">
+        <f>$G$3*G6+$H$3</f>
+        <v>128781537172.41736</v>
+      </c>
+      <c r="K6" s="58">
+        <v>1009140613399</v>
+      </c>
+      <c r="L6" s="15">
+        <f>$K$3*K6+$J$3</f>
+        <v>252285153351.59384</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C7" s="85"/>
+      <c r="D7" s="84"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-    </row>
-    <row r="14" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C15" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="45"/>
-      <c r="E15" s="12"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="28">
-        <f t="array" ref="C16:D20">LINEST(Wyniki!B3:B8,Wyniki!A3:A8,TRUE,TRUE)</f>
-        <v>1.1530869912876889E-5</v>
-      </c>
-      <c r="D16" s="33">
-        <v>-945.79164567040789</v>
-      </c>
-      <c r="E16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C17" s="18">
-        <v>2.3440462403271953E-7</v>
-      </c>
-      <c r="D17" s="17">
-        <v>970.56502472175293</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="30">
-        <v>0.99834974557113931</v>
-      </c>
-      <c r="D18" s="32">
-        <v>2121.4740376779105</v>
-      </c>
-      <c r="E18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C19" s="16">
-        <v>2419.8686653678387</v>
-      </c>
-      <c r="D19" s="27">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="25">
-        <v>10890986972.463169</v>
-      </c>
-      <c r="D20" s="26">
-        <v>18002608.370165668</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C21" s="44" t="s">
+    <row r="11" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E11" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" s="48" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="L13" s="72"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C14" s="88"/>
+      <c r="D14" s="88"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E15" s="79"/>
+      <c r="G15" s="88"/>
+      <c r="H15" s="88"/>
+      <c r="I15" s="80"/>
+      <c r="K15" s="88"/>
+      <c r="L15" s="88"/>
+      <c r="M15" s="72"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="72"/>
+      <c r="G16" s="91"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="80"/>
+      <c r="K16" s="76"/>
+      <c r="L16" s="77"/>
+      <c r="M16" s="72"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C17" s="75"/>
+      <c r="D17" s="76"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="80"/>
+      <c r="K17" s="76"/>
+      <c r="L17" s="76"/>
+      <c r="M17" s="72"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C18" s="77"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="93"/>
+      <c r="I18" s="83"/>
+      <c r="K18" s="78"/>
+      <c r="L18" s="86"/>
+      <c r="M18" s="87"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C19" s="76"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="72"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="80"/>
+      <c r="K19" s="78"/>
+      <c r="L19" s="76"/>
+      <c r="M19" s="72"/>
+    </row>
+    <row r="20" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="72"/>
+      <c r="C20" s="99" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="99"/>
+      <c r="E20" s="72"/>
+      <c r="G20" s="99" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" s="99"/>
+      <c r="I20" s="80"/>
+      <c r="J20" s="72"/>
+      <c r="K20" s="99" t="s">
+        <v>36</v>
+      </c>
+      <c r="L20" s="99"/>
+      <c r="M20" s="72"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C21" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="45"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="28">
-        <f t="array" ref="C22:D26">LINEST(Wyniki!B3:B9,Wyniki!A3:A9,TRUE,TRUE)</f>
-        <v>1.1530869912876891E-5</v>
-      </c>
-      <c r="D22" s="34">
-        <v>-945.79164567039697</v>
-      </c>
-      <c r="E22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C23" s="19">
-        <v>2.0592886264851487E-8</v>
+      <c r="D21" s="103"/>
+      <c r="G21" s="100" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="101"/>
+      <c r="K21" s="100" t="s">
+        <v>10</v>
+      </c>
+      <c r="L21" s="101"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
+      <c r="C22" s="25">
+        <f t="array" ref="C22:D26">LINEST(Dane!B3:B9,Dane!A3:A9,TRUE,TRUE)</f>
+        <v>5.4057828267388338E-5</v>
+      </c>
+      <c r="D22" s="27">
+        <v>-22845.309754775604</v>
+      </c>
+      <c r="G22" s="52">
+        <f t="array" ref="G22:H26">LINEST(Dane!B12:B18,Dane!A12:A18,1,1)</f>
+        <v>0.12762893698007974</v>
+      </c>
+      <c r="H22" s="51">
+        <v>-14006578.784153461</v>
+      </c>
+      <c r="K22" s="59">
+        <f t="array" ref="K22:L26">LINEST(Dane!B21:B27,Dane!A21:A27,1,1)</f>
+        <v>0.25000000000182715</v>
+      </c>
+      <c r="L22" s="95">
+        <v>-0.42212438583374023</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="18">
+        <v>4.6228777340844359E-7</v>
       </c>
       <c r="D23" s="17">
-        <v>789.4093908882345</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="31">
-        <v>0.99998405320632522</v>
-      </c>
-      <c r="D24" s="32">
-        <v>1897.5040642994973</v>
-      </c>
-      <c r="E24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+        <v>17721.377417808482</v>
+      </c>
+      <c r="G23" s="49">
+        <v>2.911925082880602E-4</v>
+      </c>
+      <c r="H23" s="17">
+        <v>11162597.493253944</v>
+      </c>
+      <c r="K23" s="16">
+        <v>2.7830024199779663E-12</v>
+      </c>
+      <c r="L23" s="17">
+        <v>0.10668384299995223</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="26">
+        <v>0.99963447351060175</v>
+      </c>
+      <c r="D24" s="82">
+        <v>42596.890869819646</v>
+      </c>
+      <c r="E24" s="55">
+        <f>D24/Dane!B9</f>
+        <v>7.8292055220549103E-3</v>
+      </c>
+      <c r="G24" s="54">
+        <v>0.99997397319899128</v>
+      </c>
+      <c r="H24" s="81">
+        <v>26831545.654348038</v>
+      </c>
+      <c r="I24" s="55">
+        <f>H24/Dane!B18</f>
+        <v>2.0855346449134625E-3</v>
+      </c>
+      <c r="K24" s="60">
+        <v>1</v>
+      </c>
+      <c r="L24" s="62">
+        <v>0.25643604956323551</v>
+      </c>
+      <c r="M24" s="61">
+        <f>L24/Dane!B27</f>
+        <v>1.016453192620659E-11</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C25" s="13">
-        <v>313537.65327225259</v>
+        <v>13673.899190670858</v>
       </c>
       <c r="D25" s="14">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="25">
-        <v>1128899116232.2239</v>
-      </c>
-      <c r="D26" s="26">
-        <v>18002608.370165553</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="47"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="29">
-        <f t="array" ref="C28:D32">LINEST(Wyniki!B3:B10,Wyniki!A3:A10,TRUE,TRUE)</f>
-        <v>1.1530869912876889E-5</v>
-      </c>
-      <c r="D28" s="35">
-        <v>-945.79164567054249</v>
-      </c>
-      <c r="E28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C29" s="20">
-        <v>1.8554930588733961E-9</v>
+      <c r="G25" s="16">
+        <v>192104.66412397957</v>
+      </c>
+      <c r="H25" s="17">
+        <v>5</v>
+      </c>
+      <c r="K25" s="47">
+        <v>8.069615637262891E+21</v>
+      </c>
+      <c r="L25" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="22">
+        <v>24811223240380.836</v>
+      </c>
+      <c r="D26" s="23">
+        <v>9072475558.8766212</v>
+      </c>
+      <c r="G26" s="22">
+        <v>1.383022647382507E+20</v>
+      </c>
+      <c r="H26" s="39">
+        <v>3599659211006815</v>
+      </c>
+      <c r="K26" s="47">
+        <v>5.3065346596963942E+20</v>
+      </c>
+      <c r="L26" s="17">
+        <v>0.32879723757799084</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C27" s="102" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="103"/>
+      <c r="G27" s="100" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="101"/>
+      <c r="K27" s="100" t="s">
+        <v>11</v>
+      </c>
+      <c r="L27" s="101"/>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B28" s="1"/>
+      <c r="C28" s="25">
+        <f t="array" ref="C28:D32">LINEST(Dane!B3:B10,Dane!A3:A10,TRUE,TRUE)</f>
+        <v>5.4057828267388345E-5</v>
+      </c>
+      <c r="D28" s="89">
+        <v>-22845.309754776768</v>
+      </c>
+      <c r="G28" s="52">
+        <f t="array" ref="G28:H32">LINEST(Dane!B12:B19,Dane!A12:A19,1,1)</f>
+        <v>0.12762893697974229</v>
+      </c>
+      <c r="H28" s="51">
+        <v>-14006578.779167175</v>
+      </c>
+      <c r="K28" s="59">
+        <f t="array" ref="K28:L32">LINEST(Dane!B21:B28,Dane!A21:A28,1,1)</f>
+        <v>0.25000000000224809</v>
+      </c>
+      <c r="L28" s="95">
+        <v>-0.42835235595703125</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="19">
+        <v>4.1653789747070214E-8</v>
       </c>
       <c r="D29" s="17">
-        <v>665.34734497929253</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="31">
-        <v>0.9999998446376771</v>
-      </c>
-      <c r="D30" s="32">
-        <v>1732.1762982908167</v>
-      </c>
-      <c r="E30" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+        <v>14936.320178619348</v>
+      </c>
+      <c r="G29" s="50">
+        <v>2.6237491480084745E-5</v>
+      </c>
+      <c r="H29" s="17">
+        <v>9408305.3621287197</v>
+      </c>
+      <c r="K29" s="16">
+        <v>2.5135358606341455E-13</v>
+      </c>
+      <c r="L29" s="17">
+        <v>9.0130997978434324E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="26">
+        <v>0.99999643760923873</v>
+      </c>
+      <c r="D30" s="82">
+        <v>38885.463348309473</v>
+      </c>
+      <c r="E30" s="55">
+        <f>D30/Dane!B10</f>
+        <v>7.1311391569264706E-4</v>
+      </c>
+      <c r="G30" s="54">
+        <v>0.99999974643024125</v>
+      </c>
+      <c r="H30" s="81">
+        <v>24493738.012690157</v>
+      </c>
+      <c r="I30" s="55">
+        <f>H30/Dane!B19</f>
+        <v>1.9019603702894971E-4</v>
+      </c>
+      <c r="K30" s="60">
+        <v>1</v>
+      </c>
+      <c r="L30" s="62">
+        <v>0.23464853300707234</v>
+      </c>
+      <c r="M30" s="61">
+        <f>L30/Dane!B28</f>
+        <v>9.3009251590820946E-13</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C31" s="13">
-        <v>38619395.991000496</v>
-      </c>
-      <c r="D31" s="27">
+        <v>1684256.1717043121</v>
+      </c>
+      <c r="D31" s="24">
         <v>6</v>
       </c>
-    </row>
-    <row r="32" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="25">
-        <v>115874976919703.25</v>
-      </c>
-      <c r="D32" s="26">
-        <v>18002608.37016286</v>
+      <c r="G31" s="16">
+        <v>23662121.656060725</v>
+      </c>
+      <c r="H31" s="24">
+        <v>6</v>
+      </c>
+      <c r="K31" s="47">
+        <v>9.8925862626201971E+23</v>
+      </c>
+      <c r="L31" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="22">
+        <v>2546728825445660</v>
+      </c>
+      <c r="D32" s="23">
+        <v>9072475558.8763142</v>
+      </c>
+      <c r="G32" s="22">
+        <v>1.4195929028529865E+22</v>
+      </c>
+      <c r="H32" s="23">
+        <v>3599659211005816.5</v>
+      </c>
+      <c r="K32" s="22">
+        <v>5.4468514712833464E+22</v>
+      </c>
+      <c r="L32" s="39">
+        <v>0.33035960425422672</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="15">
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="K4:L4"/>
     <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C27:D27"/>
     <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C27:D27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Projekt2_Liczby_Pierwsze/Projekt2_Liczby_Pierwsze/Projekt2-dane.xlsx
+++ b/Projekt2_Liczby_Pierwsze/Projekt2_Liczby_Pierwsze/Projekt2-dane.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programowanie\C#\Algorytmy\Projekt2_Liczby_Pierwsze\Projekt2_Liczby_Pierwsze\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -779,9 +779,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -789,10 +786,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -800,11 +797,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -823,6 +823,9515 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL" sz="1800"/>
+              <a:t>Czas sprawdzania pierwszości liczb</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.22649479723970214"/>
+          <c:y val="2.3471401852577418E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Pozytywny</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Dane!$A$3:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>100913</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1009139</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10091401</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100914061</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1009140611</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10091406133</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0">
+                  <c:v>100914061337</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0">
+                  <c:v>1009140613399</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Dane!$C$3:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="821181488"/>
+        <c:axId val="821176048"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Podstawowy</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Dane!$A$3:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>100913</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1009139</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10091401</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100914061</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1009140611</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10091406133</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0">
+                  <c:v>100914061337</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0">
+                  <c:v>1009140613399</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Dane!$B$3:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2072</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18781</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>439564</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0">
+                  <c:v>5440768</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0">
+                  <c:v>54529104.667015292</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="821186384"/>
+        <c:axId val="821177680"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="821181488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Wielkość liczby pierwszej</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="821176048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="821176048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Czas [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="821181488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="821177680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Czas [ms]</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>oś algorytmu podstawowego</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="821186384"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="821186384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="821177680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL" sz="1800"/>
+              <a:t>Instrumentacja sprawdzania pierszości</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" sz="1800" baseline="0"/>
+              <a:t> liczb</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL" sz="1800"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16601264284552925"/>
+          <c:y val="3.0097370127083051E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Pozytywny</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Dane!$A$21:$A$28</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>100913</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1009139</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10091401</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100914061</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1009140611</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10091406133</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100914061337</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1009140613399</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Dane!$C$21:$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>502</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1588</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5023</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15883</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50228</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158835</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>502280</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="821188016"/>
+        <c:axId val="821184752"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Podstawowy</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Dane!$A$21:$A$28</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>100913</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1009139</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10091401</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100914061</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1009140611</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10091406133</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100914061337</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1009140613399</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Dane!$B$21:$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25228</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>252284</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2522850</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25228515</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>252285152</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2522851533</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25228515334</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>252285153351.59384</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="821179312"/>
+        <c:axId val="821178768"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="821188016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Wielkość liczby pierwszej</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="821184752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="821184752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Punkty</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> krytyczne</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="821188016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="821178768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Punkty krytyczne</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>oś algorytmu podstawowego</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="821179312"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="821179312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="821178768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL" sz="1800"/>
+              <a:t>Czas sprawdzania pierwszości liczb</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" sz="1800" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL" sz="1800" baseline="0"/>
+              <a:t>na zbiorach 100-liczbowych</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL" sz="1800"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.2446307296041744"/>
+          <c:y val="1.9912130537865322E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Podzielność ze wzoru</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="65000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Dane!$I$3:$I$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10000000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100000000000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1000000000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10000000000000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>100000000000000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1000000000000000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1E+16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1E+17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1E+18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Dane!$J$3:$J$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3761</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5542</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>32868</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>158400</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>289127</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Podzielności przez 2, 3, 5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Dane!$I$3:$I$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10000000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100000000000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1000000000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10000000000000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>100000000000000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1000000000000000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1E+16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1E+17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1E+18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Dane!$K$3:$K$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>378</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1068</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4454</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6496</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>38760</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>187605</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>343191</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Podzielność ze wzoru oraz przez 2, 3, 5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="65000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Dane!$I$3:$I$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10000000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100000000000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1000000000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10000000000000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>100000000000000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1000000000000000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1E+16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1E+17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1E+18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Dane!$L$3:$L$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>893</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3974</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5535</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>32846</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>158809</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>289379</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Sito Eratostenesa</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Dane!$I$3:$I$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10000000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100000000000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1000000000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10000000000000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>100000000000000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1000000000000000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1E+16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1E+17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1E+18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Dane!$M$3:$M$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>354</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1188</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4792</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10767</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>29646</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>105676</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>370073</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1041310</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="821187472"/>
+        <c:axId val="821183120"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="821187472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Wielkość liczbowa</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> zbioru</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="821183120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="821183120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Czas [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="821187472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL" sz="1800"/>
+              <a:t>Instrumentacja sprawdzania pierwszości liczb </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL" sz="1800"/>
+              <a:t>na zbiorach 100-liczbowych</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12174452105714442"/>
+          <c:y val="2.0124289938726555E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Podzielność ze wzoru</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="65000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Dane!$I$23:$I$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10000000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100000000000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1000000000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10000000000000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>100000000000000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1000000000000000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1E+16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1E+17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1E+18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Dane!$J$23:$J$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>675</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1136</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2657</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3975</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22089</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>87914</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>209558</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>758025</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1405252</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3995275</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16655220</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>26307327</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>154378645</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>737869035</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1333906955</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Podzielność przez 2, 3, 5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Dane!$I$23:$I$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10000000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100000000000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1000000000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10000000000000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>100000000000000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1000000000000000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1E+16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1E+17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1E+18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Dane!$K$23:$K$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>382</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>411</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>509</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>734</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1227</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1962</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4286</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6302</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33511</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>132281</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>314797</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1137536</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2108418</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5993490</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>24983450</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>39461651</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>231568669</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1106804290</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2000861211</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Podzielność ze wzoru oraz przez 2, 3, 5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Dane!$I$23:$I$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10000000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100000000000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1000000000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10000000000000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>100000000000000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1000000000000000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1E+16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1E+17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1E+18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Dane!$L$23:$L$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>401</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>477</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>639</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>970</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1471</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3032</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4390</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22544</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>88409</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>210093</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>758600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1405867</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3995930</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16655915</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>26308062</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>154379420</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>737869850</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1333907810</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Sito Eratostenesa</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Dane!$I$23:$I$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10000000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100000000000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1000000000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10000000000000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>100000000000000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1000000000000000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1E+16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1E+17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1E+18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Dane!$M$23:$M$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>412</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>904</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1599</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3883</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5859</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33028</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>131758</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>314234</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>758018</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2107775</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>876128</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>24982727</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>39460888</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>231567866</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1106803447</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2000860328</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="821182576"/>
+        <c:axId val="821183664"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="821182576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Wielkość liczbowa zbioru</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="821183664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="821183664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Punkty krytyczne</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="821182576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL" sz="1800"/>
+              <a:t>Czas</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" sz="1800" baseline="0"/>
+              <a:t> sprawdzenia pierwszości  liczb </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL" sz="1800" baseline="0"/>
+              <a:t>dla wszystkich algorytmów</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL" sz="1800"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Pozytywny</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Dane!$A$12:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>100913</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1009139</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10091401</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100914061</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1009140611</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10091406133</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100914061337</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1009140613399</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Dane!$C$12:$C$19</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>39.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>122.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>389.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1234.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3797.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17667.599999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>55599</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>156112.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Podzielność ze wzoru</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Dane!$A$12:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>100913</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1009139</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10091401</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100914061</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1009140611</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10091406133</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100914061337</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1009140613399</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Dane!$D$12:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>33.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>105.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>336.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1117.4000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3427</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13522.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42796.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>139183.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Podzielnośc przez 2, 3, 5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Dane!$A$12:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>100913</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1009139</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10091401</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100914061</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1009140611</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10091406133</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100914061337</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1009140613399</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Dane!$E$12:$E$19</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>40.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>108.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>340.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1094.0999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3510.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13624.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45335.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>144536</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Podzielność ze wzoru oraz przez 2, 3, 5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="7030A0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Dane!$A$12:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>100913</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1009139</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10091401</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100914061</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1009140611</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10091406133</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100914061337</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1009140613399</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Dane!$F$12:$F$19</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>366.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1098.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3431</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13153.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42824.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>136833.29999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Sito Eratostenesa</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Dane!$A$12:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>100913</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1009139</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10091401</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100914061</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1009140611</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10091406133</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100914061337</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1009140613399</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Dane!$G$12:$G$19</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>18.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>151.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>521.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1838.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7469.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26953.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>91282.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="821185296"/>
+        <c:axId val="821174416"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Podstawowy</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Dane!$A$12:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>100913</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1009139</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10091401</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100914061</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1009140611</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10091406133</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100914061337</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1009140613399</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Dane!$B$12:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6495</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65438</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>640554</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6495952</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60528468</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1279283785</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12865547796</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0">
+                  <c:v>128781537172.41736</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="827230480"/>
+        <c:axId val="698286944"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="821185296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Wielkość liczby pierwszej</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="821174416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="821174416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Ticki procesora</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="821185296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="698286944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Ticki procesora</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>oś</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> algorytmu podstawowego</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="827230480"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="827230480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="698286944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL" sz="1800"/>
+              <a:t>Instrumentacja sprawdzania pierwszości liczb</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL" sz="1800"/>
+              <a:t>dla wszystkich</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" sz="1800" baseline="0"/>
+              <a:t> algorytmów</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL" sz="1800"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Pozytywny</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Dane!$A$21:$A$28</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>100913</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1009139</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10091401</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100914061</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1009140611</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10091406133</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100914061337</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1009140613399</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Dane!$C$21:$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>502</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1588</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5023</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15883</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50228</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158835</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>502280</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Podzielność ze wzoru</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="7030A0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Dane!$A$21:$A$28</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>100913</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1009139</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10091401</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100914061</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1009140611</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10091406133</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100914061337</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1009140613399</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Dane!$D$21:$D$28</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>337</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1061</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3351</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10591</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33487</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>105892</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>334855</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Podzielnośc przez 2, 3, 5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Dane!$A$21:$A$28</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>100913</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1009139</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10091401</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100914061</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1009140611</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10091406133</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100914061337</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1009140613399</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Dane!$E$21:$E$28</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>511</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1598</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5034</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15895</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50241</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158849</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>502295</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Podzielność ze wzoru oraz przez 2, 3, 5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="7030A0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Dane!$A$21:$A$28</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>100913</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1009139</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10091401</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100914061</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1009140611</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10091406133</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100914061337</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1009140613399</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Dane!$F$21:$F$28</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1070</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3361</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10602</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33499</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>105905</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>334869</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Sito Eratostenesa</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Dane!$A$21:$A$28</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>100913</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1009139</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10091401</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100914061</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1009140611</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10091406133</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100914061337</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1009140613399</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Dane!$G$21:$G$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0" formatCode="0">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0">
+                  <c:v>449</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0">
+                  <c:v>1233</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0">
+                  <c:v>3415</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0">
+                  <c:v>9628</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0">
+                  <c:v>27411</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0">
+                  <c:v>78840</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="834117728"/>
+        <c:axId val="834128608"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Podstawowy</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Dane!$A$21:$A$28</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>100913</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1009139</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10091401</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100914061</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1009140611</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10091406133</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100914061337</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1009140613399</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Dane!$B$21:$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25228</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>252284</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2522850</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25228515</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>252285152</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2522851533</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25228515334</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>252285153351.59384</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="904017888"/>
+        <c:axId val="902293728"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="834117728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Wielkość liczby pierwszej</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="834128608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="834128608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Punkty krytyczne</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="834117728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="902293728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Punkty krytyczne</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>oś</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> algorytmu podstawowego</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="904017888"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="904017888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="902293728"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>11205</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Wykres 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>180414</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Wykres 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1120</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>152256</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2428875</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>169069</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Wykres 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>1118</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2442883</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>168087</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Wykres 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>11204</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>1119</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2431676</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Wykres 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1053353</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>146796</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Wykres 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1090,8 +10599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F139" sqref="F139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2474,6 +11983,7 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5464,16 +14974,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A41:J41"/>
     <mergeCell ref="M1:V1"/>
     <mergeCell ref="M11:V11"/>
     <mergeCell ref="M21:V21"/>
     <mergeCell ref="M31:V31"/>
     <mergeCell ref="M41:V41"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="A41:J41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5504,10 +15014,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="99" t="s">
+      <c r="C1" s="105" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="99"/>
+      <c r="D1" s="105"/>
       <c r="G1" s="98" t="s">
         <v>29</v>
       </c>
@@ -5561,18 +15071,18 @@
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C4" s="104" t="s">
+      <c r="C4" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="105"/>
-      <c r="G4" s="106" t="s">
+      <c r="D4" s="104"/>
+      <c r="G4" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="107"/>
-      <c r="K4" s="106" t="s">
+      <c r="H4" s="102"/>
+      <c r="K4" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="107"/>
+      <c r="L4" s="102"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C5" s="20" t="s">
@@ -5717,36 +15227,36 @@
     </row>
     <row r="20" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="72"/>
-      <c r="C20" s="99" t="s">
+      <c r="C20" s="105" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="99"/>
+      <c r="D20" s="105"/>
       <c r="E20" s="72"/>
-      <c r="G20" s="99" t="s">
+      <c r="G20" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="H20" s="99"/>
+      <c r="H20" s="105"/>
       <c r="I20" s="80"/>
       <c r="J20" s="72"/>
-      <c r="K20" s="99" t="s">
+      <c r="K20" s="105" t="s">
         <v>36</v>
       </c>
-      <c r="L20" s="99"/>
+      <c r="L20" s="105"/>
       <c r="M20" s="72"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C21" s="102" t="s">
+      <c r="C21" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="103"/>
-      <c r="G21" s="100" t="s">
+      <c r="D21" s="107"/>
+      <c r="G21" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="H21" s="101"/>
-      <c r="K21" s="100" t="s">
+      <c r="H21" s="100"/>
+      <c r="K21" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="L21" s="101"/>
+      <c r="L21" s="100"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
@@ -5865,18 +15375,18 @@
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C27" s="102" t="s">
+      <c r="C27" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="103"/>
-      <c r="G27" s="100" t="s">
+      <c r="D27" s="107"/>
+      <c r="G27" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="H27" s="101"/>
-      <c r="K27" s="100" t="s">
+      <c r="H27" s="100"/>
+      <c r="K27" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="L27" s="101"/>
+      <c r="L27" s="100"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
